--- a/_appData/mutasi_jadi.xlsx
+++ b/_appData/mutasi_jadi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="357">
   <si>
     <t>PEMERINTAH KABUPATEN MINAHASA UTARA</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>2.00 @Rp.28,500.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.28,500.00</t>
   </si>
   <si>
     <t>Ballpoint Baliner</t>
@@ -208,6 +211,20 @@
     <t>20.00 @Rp.25,000.00 +
 10.00 @Rp.25,000.00 +
 20.00 @Rp.25,000.00 +
+15.00 @Rp.25,000.00 +
+5.00 @Rp.25,000.00 +
+5.00 @Rp.25,000.00 +
+17.00 @Rp.25,000.00 +
+36.00 @Rp.17,500.00</t>
+  </si>
+  <si>
+    <t>10.00 @Rp.25,000.00 +
+10.00 @Rp.25,000.00 +
+16.00 @Rp.25,000.00 +
+10.00 @Rp.25,000.00</t>
+  </si>
+  <si>
+    <t>4.00 @Rp.25,000.00 +
 15.00 @Rp.25,000.00 +
 5.00 @Rp.25,000.00 +
 5.00 @Rp.25,000.00 +
@@ -234,6 +251,28 @@
 8.00 @Rp.27,500.00</t>
   </si>
   <si>
+    <t>8.00 @Rp.28,000.00 +
+2.00 @Rp.28,000.00 +
+10.00 @Rp.28,000.00 +
+4.00 @Rp.28,000.00 +
+6.00 @Rp.28,000.00 +
+6.00 @Rp.27,500.00 +
+8.00 @Rp.27,500.00 +
+10.00 @Rp.28,000.00</t>
+  </si>
+  <si>
+    <t>15.00 @Rp.28,000.00 +
+5.00 @Rp.28,000.00 +
+5.00 @Rp.28,000.00 +
+5.00 @Rp.28,000.00 +
+14.00 @Rp.28,000.00 +
+2.00 @Rp.27,500.00 +
+10.00 @Rp.27,500.00 +
+5.00 @Rp.27,500.00 +
+5.00 @Rp.27,500.00 +
+8.00 @Rp.27,500.00</t>
+  </si>
+  <si>
     <t>Ballpoint Pilot BPT P</t>
   </si>
   <si>
@@ -245,10 +284,35 @@
 10.00 @Rp.7,500.00</t>
   </si>
   <si>
+    <t>10.00 @Rp.7,500.00 +
+10.00 @Rp.7,500.00 +
+10.00 @Rp.7,500.00 +
+10.00 @Rp.7,500.00 +
+8.00 @Rp.7,500.00 +
+8.00 @Rp.7,500.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.7,500.00 +
+0.00 @Rp.7,500.00 +
+0.00 @Rp.7,500.00</t>
+  </si>
+  <si>
     <t>Ballpoint Standard</t>
   </si>
   <si>
     <t>24.00 @Rp.24,000.00 +
+8.00 @Rp.24,000.00 +
+5.00 @Rp.24,000.00 +
+5.00 @Rp.24,000.00 +
+2.00 @Rp.24,000.00</t>
+  </si>
+  <si>
+    <t>2.00 @Rp.24,000.00 +
+5.00 @Rp.24,000.00 +
+10.00 @Rp.24,000.00</t>
+  </si>
+  <si>
+    <t>7.00 @Rp.24,000.00 +
 8.00 @Rp.24,000.00 +
 5.00 @Rp.24,000.00 +
 5.00 @Rp.24,000.00 +
@@ -266,6 +330,18 @@
 5.00 @Rp.1,500.00</t>
   </si>
   <si>
+    <t>5.00 @Rp.1,550.00 +
+45.00 @Rp.1,550.00 +
+5.00 @Rp.1,600.00</t>
+  </si>
+  <si>
+    <t>20.00 @Rp.1,600.00 +
+10.00 @Rp.1,600.00 +
+23.00 @Rp.1,600.00 +
+50.00 @Rp.1,550.00 +
+5.00 @Rp.1,500.00</t>
+  </si>
+  <si>
     <t>Binder Clips 115</t>
   </si>
   <si>
@@ -277,6 +353,17 @@
 5.00 @Rp.3,000.00</t>
   </si>
   <si>
+    <t>5.00 @Rp.3,150.00 +
+25.00 @Rp.3,150.00 +
+25.00 @Rp.3,150.00</t>
+  </si>
+  <si>
+    <t>10.00 @Rp.3,150.00 +
+10.00 @Rp.3,150.00 +
+50.00 @Rp.3,150.00 +
+5.00 @Rp.3,000.00</t>
+  </si>
+  <si>
     <t>Binder Clips 200</t>
   </si>
   <si>
@@ -290,15 +377,16 @@
 50.00 @Rp.4,750.00</t>
   </si>
   <si>
-    <t>10.00 @Rp.4,750.00</t>
-  </si>
-  <si>
     <t>30.00 @Rp.4,800.00 +
-25.00 @Rp.4,750.00 +
+2.00 @Rp.4,750.00 +
+18.00 @Rp.4,750.00 +
+20.00 @Rp.4,750.00</t>
+  </si>
+  <si>
+    <t>23.00 @Rp.4,750.00 +
 10.00 @Rp.4,750.00 +
 10.00 @Rp.4,750.00 +
-50.00 @Rp.4,750.00 +
-28.00 @Rp.4,750.00</t>
+50.00 @Rp.4,750.00</t>
   </si>
   <si>
     <t>Binder Clips 260</t>
@@ -311,6 +399,16 @@
 50.00 @Rp.5,750.00</t>
   </si>
   <si>
+    <t>30.00 @Rp.5,800.00 +
+20.00 @Rp.5,800.00</t>
+  </si>
+  <si>
+    <t>5.00 @Rp.5,800.00 +
+10.00 @Rp.5,800.00 +
+5.00 @Rp.5,800.00 +
+50.00 @Rp.5,750.00</t>
+  </si>
+  <si>
     <t>Bout</t>
   </si>
   <si>
@@ -323,22 +421,34 @@
     <t>5.00 @Rp.25,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.25,000.00</t>
+  </si>
+  <si>
     <t>Buku Kuarto 100Lbr</t>
   </si>
   <si>
     <t>5.00 @Rp.12,500.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.12,500.00</t>
+  </si>
+  <si>
     <t>Cap (Stempel)</t>
   </si>
   <si>
     <t>1.00 @Rp.130,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.130,000.00</t>
+  </si>
+  <si>
     <t>Cartridge Canon 811 Black</t>
   </si>
   <si>
     <t>3.00 @Rp.300,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.300,000.00</t>
   </si>
   <si>
     <t>Cartridge Hitam</t>
@@ -349,6 +459,13 @@
 5.00 @Rp.350,000.00</t>
   </si>
   <si>
+    <t>2.00 @Rp.350,000.00</t>
+  </si>
+  <si>
+    <t>3.00 @Rp.350,000.00 +
+5.00 @Rp.350,000.00</t>
+  </si>
+  <si>
     <t>Cartridge T-290 Epson WF-100 Hitam</t>
   </si>
   <si>
@@ -357,6 +474,10 @@
 2.00 @Rp.225,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.225,000.00 +
+0.00 @Rp.225,000.00</t>
+  </si>
+  <si>
     <t>Cartridge T-290 Epson WF-100 Warna</t>
   </si>
   <si>
@@ -365,6 +486,10 @@
 2.00 @Rp.235,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.235,000.00 +
+0.00 @Rp.235,000.00</t>
+  </si>
+  <si>
     <t>Cartridge Warna</t>
   </si>
   <si>
@@ -372,6 +497,13 @@
 5.00 @Rp.380,000.00</t>
   </si>
   <si>
+    <t>2.00 @Rp.380,000.00</t>
+  </si>
+  <si>
+    <t>3.00 @Rp.380,000.00 +
+5.00 @Rp.380,000.00</t>
+  </si>
+  <si>
     <t>Clean Pembersih</t>
   </si>
   <si>
@@ -383,6 +515,13 @@
   <si>
     <t>5.00 @Rp.8,000.00 +
 3.00 @Rp.19,500.00</t>
+  </si>
+  <si>
+    <t>3.00 @Rp.19,500.00 +
+5.00 @Rp.8,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.8,000.00</t>
   </si>
   <si>
     <t>Cutter</t>
@@ -395,16 +534,32 @@
 5.00 @Rp.7,000.00</t>
   </si>
   <si>
+    <t>1.00 @Rp.11,000.00 +
+4.00 @Rp.7,000.00 +
+1.00 @Rp.11,500.00</t>
+  </si>
+  <si>
+    <t>1.00 @Rp.10,500.00 +
+1.00 @Rp.10,000.00 +
+1.00 @Rp.7,000.00</t>
+  </si>
+  <si>
     <t>Data Print Refil Kit Canon Hitam</t>
   </si>
   <si>
     <t>4.00 @Rp.44,100.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.44,100.00</t>
+  </si>
+  <si>
     <t>Data Print Refil Kit Canon Warna</t>
   </si>
   <si>
     <t>3.00 @Rp.42,700.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.42,700.00</t>
   </si>
   <si>
     <t>Feting</t>
@@ -421,6 +576,14 @@
 5.00 @Rp.160,000.00</t>
   </si>
   <si>
+    <t>4.00 @Rp.180,000.00 +
+1.00 @Rp.160,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.180,000.00 +
+4.00 @Rp.160,000.00</t>
+  </si>
+  <si>
     <t>Gayung</t>
   </si>
   <si>
@@ -446,11 +609,17 @@
     <t>5.00 @Rp.35,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.35,000.00</t>
+  </si>
+  <si>
     <t>Gunting Plastik Besar</t>
   </si>
   <si>
     <t>5.00 @Rp.22,000.00 +
 5.00 @Rp.22,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.22,000.00</t>
   </si>
   <si>
     <t>Gunting Plastik Sedang</t>
@@ -461,6 +630,13 @@
 3.00 @Rp.18,500.00</t>
   </si>
   <si>
+    <t>2.00 @Rp.18,500.00</t>
+  </si>
+  <si>
+    <t>3.00 @Rp.18,500.00 +
+3.00 @Rp.18,500.00</t>
+  </si>
+  <si>
     <t>Hand Sanitizer Botol Besar</t>
   </si>
   <si>
@@ -481,10 +657,17 @@
 2.00 @Rp.12,000.00</t>
   </si>
   <si>
+    <t>5.00 @Rp.12,000.00 +
+2.00 @Rp.12,000.00</t>
+  </si>
+  <si>
     <t>Hekter Besar</t>
   </si>
   <si>
     <t>5.00 @Rp.24,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.24,000.00</t>
   </si>
   <si>
     <t>Hekter Kecil</t>
@@ -500,6 +683,16 @@
 2.00 @Rp.7,500.00</t>
   </si>
   <si>
+    <t>2.00 @Rp.7,000.00 +
+2.00 @Rp.7,000.00</t>
+  </si>
+  <si>
+    <t>2.00 @Rp.7,000.00 +
+1.00 @Rp.5,750.00 +
+4.00 @Rp.7,000.00 +
+2.00 @Rp.7,500.00</t>
+  </si>
+  <si>
     <t>Isi Hekter</t>
   </si>
   <si>
@@ -513,10 +706,16 @@
   </si>
   <si>
     <t>2.00 @Rp.12,000.00 +
-5.00 @Rp.4,700.00 +
+4.00 @Rp.4,725.00 +
+5.00 @Rp.5,000.00 +
+2.00 @Rp.4,700.00 +
+1.00 @Rp.5,000.00 +
+6.00 @Rp.4,725.00</t>
+  </si>
+  <si>
+    <t>3.00 @Rp.4,700.00 +
 3.00 @Rp.4,700.00 +
-6.00 @Rp.5,000.00 +
-10.00 @Rp.4,725.00</t>
+0.00 @Rp.5,000.00</t>
   </si>
   <si>
     <t>Kalkulator</t>
@@ -524,6 +723,13 @@
   <si>
     <t>2.00 @Rp.150,000.00 +
 3.00 @Rp.200,000.00</t>
+  </si>
+  <si>
+    <t>3.00 @Rp.200,000.00 +
+2.00 @Rp.150,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.200,000.00</t>
   </si>
   <si>
     <t>Kemoceng</t>
@@ -548,6 +754,14 @@
     <t>4.00 @Rp.47,000.00 +
 4.00 @Rp.47,000.00 +
 5.00 @Rp.42,000.00</t>
+  </si>
+  <si>
+    <t>4.00 @Rp.47,000.00 +
+1.00 @Rp.42,000.00</t>
+  </si>
+  <si>
+    <t>4.00 @Rp.47,000.00 +
+4.00 @Rp.42,000.00</t>
   </si>
   <si>
     <t>Kertas HVS F4</t>
@@ -576,23 +790,30 @@
   </si>
   <si>
     <t>20.00 @Rp.57,750.00 +
+7.00 @Rp.57,750.00 +
+3.00 @Rp.57,750.00 +
 10.00 @Rp.57,750.00 +
-10.00 @Rp.57,750.00 +
-20.00 @Rp.57,750.00 +
+2.00 @Rp.55,000.00 +
+4.00 @Rp.57,750.00 +
+25.00 @Rp.55,000.00 +
+14.00 @Rp.57,750.00 +
+11.00 @Rp.57,750.00 +
+15.00 @Rp.57,750.00 +
+24.00 @Rp.46,200.00 +
+15.00 @Rp.57,750.00 +
+12.00 @Rp.57,750.00 +
+2.00 @Rp.57,750.00 +
+1.00 @Rp.46,200.00 +
+5.00 @Rp.57,750.00</t>
+  </si>
+  <si>
+    <t>20.00 @Rp.57,750.00 +
 5.00 @Rp.57,750.00 +
 5.00 @Rp.57,750.00 +
 5.00 @Rp.57,750.00 +
 10.00 @Rp.57,750.00 +
-14.00 @Rp.57,750.00 +
-15.00 @Rp.57,750.00 +
-15.00 @Rp.57,750.00 +
-12.00 @Rp.57,750.00 +
-12.00 @Rp.57,750.00 +
-15.00 @Rp.57,750.00 +
-25.00 @Rp.46,200.00 +
-30.00 @Rp.57,000.00 +
-27.00 @Rp.55,000.00 +
-5.00 @Rp.57,750.00</t>
+10.00 @Rp.57,750.00 +
+30.00 @Rp.57,000.00</t>
   </si>
   <si>
     <t>Kertas HVS F4 Warna</t>
@@ -608,6 +829,19 @@
 4.00 @Rp.57,750.00</t>
   </si>
   <si>
+    <t>9.00 @Rp.70,000.00 +
+9.00 @Rp.70,000.00 +
+9.00 @Rp.70,000.00 +
+4.00 @Rp.42,000.00 +
+9.00 @Rp.70,000.00 +
+9.00 @Rp.70,000.00 +
+9.00 @Rp.70,000.00 +
+4.00 @Rp.57,750.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.57,750.00</t>
+  </si>
+  <si>
     <t>Lakban</t>
   </si>
   <si>
@@ -642,10 +876,16 @@
     <t>1.00 @Rp.7,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.7,000.00</t>
+  </si>
+  <si>
     <t>Map Biasa</t>
   </si>
   <si>
     <t>51.00 @Rp.1,500.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.1,500.00</t>
   </si>
   <si>
     <t>Map Diamond</t>
@@ -675,28 +915,42 @@
   <si>
     <t>50.00 @Rp.6,000.00 +
 50.00 @Rp.6,000.00 +
-100.00 @Rp.6,000.00 +
 50.00 @Rp.6,000.00 +
+50.00 @Rp.6,000.00 +
+50.00 @Rp.5,000.00 +
+50.00 @Rp.5,000.00 +
+100.00 @Rp.5,000.00 +
+50.00 @Rp.5,000.00 +
+50.00 @Rp.5,000.00 +
+40.00 @Rp.5,000.00 +
+100.00 @Rp.5,000.00 +
+100.00 @Rp.5,500.00 +
+40.00 @Rp.5,000.00 +
+10.00 @Rp.5,000.00 +
+50.00 @Rp.5,000.00</t>
+  </si>
+  <si>
+    <t>50.00 @Rp.6,000.00 +
 50.00 @Rp.6,000.00 +
 20.00 @Rp.6,000.00 +
 5.00 @Rp.6,000.00 +
 100.00 @Rp.6,000.00 +
-50.00 @Rp.5,000.00 +
-100.00 @Rp.5,000.00 +
+70.00 @Rp.5,000.00 +
 80.00 @Rp.5,000.00 +
-80.00 @Rp.5,000.00 +
-80.00 @Rp.5,000.00 +
-100.00 @Rp.5,000.00 +
-100.00 @Rp.5,500.00 +
-50.00 @Rp.5,500.00 +
-150.00 @Rp.5,000.00 +
-50.00 @Rp.5,000.00</t>
+50.00 @Rp.5,500.00</t>
   </si>
   <si>
     <t>Map Stop Map</t>
   </si>
   <si>
     <t>50.00 @Rp.1,575.00 +
+50.00 @Rp.1,550.00</t>
+  </si>
+  <si>
+    <t>50.00 @Rp.1,575.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.1,575.00 +
 50.00 @Rp.1,550.00</t>
   </si>
   <si>
@@ -721,16 +975,39 @@
 150.00 @Rp.6,000.00</t>
   </si>
   <si>
+    <t>150.00 @Rp.6,000.00 +
+250.00 @Rp.6,000.00 +
+300.00 @Rp.6,000.00 +
+50.00 @Rp.6,000.00</t>
+  </si>
+  <si>
+    <t>250.00 @Rp.6,000.00 +
+500.00 @Rp.6,000.00 +
+300.00 @Rp.6,000.00 +
+100.00 @Rp.6,000.00 +
+150.00 @Rp.6,000.00 +
+150.00 @Rp.6,000.00 +
+100.00 @Rp.6,000.00 +
+100.00 @Rp.6,000.00 +
+150.00 @Rp.6,000.00</t>
+  </si>
+  <si>
     <t>Meteran Panjang 10m</t>
   </si>
   <si>
     <t>3.00 @Rp.40,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.40,000.00</t>
+  </si>
+  <si>
     <t>Meteran Panjang 50m</t>
   </si>
   <si>
     <t>3.00 @Rp.135,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.135,000.00</t>
   </si>
   <si>
     <t>Nice Tissue 200s</t>
@@ -770,10 +1047,31 @@
 8.00 @Rp.28,000.00</t>
   </si>
   <si>
+    <t>8.00 @Rp.28,000.00 +
+15.00 @Rp.28,000.00 +
+1.00 @Rp.28,000.00 +
+1.00 @Rp.28,000.00 +
+7.00 @Rp.28,000.00 +
+7.00 @Rp.28,000.00 +
+8.00 @Rp.28,000.00 +
+3.00 @Rp.28,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.28,000.00 +
+8.00 @Rp.28,000.00 +
+5.00 @Rp.28,000.00 +
+5.00 @Rp.28,000.00 +
+0.00 @Rp.28,000.00 +
+5.00 @Rp.28,000.00</t>
+  </si>
+  <si>
     <t>Paper Clip</t>
   </si>
   <si>
     <t>5.00 @Rp.5,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.5,000.00</t>
   </si>
   <si>
     <t>Paseo Tissue Elegan</t>
@@ -813,6 +1111,9 @@
     <t>1.00 @Rp.50,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.50,000.00</t>
+  </si>
+  <si>
     <t>Pengharum Ruangan</t>
   </si>
   <si>
@@ -831,10 +1132,21 @@
     <t>5.00 @Rp.30,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.30,000.00</t>
+  </si>
+  <si>
     <t>Plat Ban 1"</t>
   </si>
   <si>
     <t>5.00 @Rp.12,600.00 +
+1.00 @Rp.12,600.00 +
+1.00 @Rp.12,600.00</t>
+  </si>
+  <si>
+    <t>1.00 @Rp.12,600.00</t>
+  </si>
+  <si>
+    <t>4.00 @Rp.12,600.00 +
 1.00 @Rp.12,600.00 +
 1.00 @Rp.12,600.00</t>
   </si>
@@ -854,6 +1166,21 @@
 1.00 @Rp.17,850.00</t>
   </si>
   <si>
+    <t>5.00 @Rp.17,850.00 +
+1.00 @Rp.18,000.00 +
+6.00 @Rp.17,850.00 +
+6.00 @Rp.17,850.00 +
+6.00 @Rp.17,850.00 +
+4.00 @Rp.17,850.00 +
+6.00 @Rp.17,850.00 +
+1.00 @Rp.17,850.00</t>
+  </si>
+  <si>
+    <t>2.00 @Rp.17,850.00 +
+5.00 @Rp.17,850.00 +
+1.00 @Rp.17,850.00</t>
+  </si>
+  <si>
     <t>Plat Ban 2"</t>
   </si>
   <si>
@@ -862,10 +1189,21 @@
 1.00 @Rp.26,000.00</t>
   </si>
   <si>
+    <t>1.00 @Rp.26,250.00</t>
+  </si>
+  <si>
+    <t>7.00 @Rp.26,250.00 +
+2.00 @Rp.26,250.00 +
+1.00 @Rp.26,000.00</t>
+  </si>
+  <si>
     <t>Preforator Kecil</t>
   </si>
   <si>
     <t>3.00 @Rp.37,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.37,000.00</t>
   </si>
   <si>
     <t>Round Cable</t>
@@ -917,12 +1255,18 @@
     <t>5.00 @Rp.23,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.23,000.00</t>
+  </si>
+  <si>
     <t>Tinta Canon Printech Black</t>
   </si>
   <si>
     <t>2.00 @Rp.55,000.00</t>
   </si>
   <si>
+    <t>0.00 @Rp.55,000.00</t>
+  </si>
+  <si>
     <t>Tinta Canon Printech Cyan</t>
   </si>
   <si>
@@ -939,6 +1283,9 @@
   </si>
   <si>
     <t>3.00 @Rp.110,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.110,000.00</t>
   </si>
   <si>
     <t>Tinta Epson 664 Colour</t>
@@ -951,6 +1298,13 @@
 3.00 @Rp.120,000.00</t>
   </si>
   <si>
+    <t>3.00 @Rp.120,000.00 +
+3.00 @Rp.95,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.95,000.00</t>
+  </si>
+  <si>
     <t>Tinta Epson Cyan</t>
   </si>
   <si>
@@ -958,7 +1312,19 @@
 2.00 @Rp.120,000.00</t>
   </si>
   <si>
+    <t>2.00 @Rp.120,000.00 +
+3.00 @Rp.95,000.00</t>
+  </si>
+  <si>
     <t>Tinta Epson Magenta</t>
+  </si>
+  <si>
+    <t>1.00 @Rp.95,000.00 +
+2.00 @Rp.120,000.00</t>
+  </si>
+  <si>
+    <t>2.00 @Rp.95,000.00 +
+0.00 @Rp.120,000.00</t>
   </si>
   <si>
     <t>Tinta Epson Yellow</t>
@@ -975,6 +1341,19 @@
 4.00 @Rp.95,000.00</t>
   </si>
   <si>
+    <t>4.00 @Rp.95,000.00 +
+3.00 @Rp.95,000.00 +
+4.00 @Rp.95,000.00 +
+4.00 @Rp.95,000.00 +
+4.00 @Rp.95,000.00 +
+4.00 @Rp.95,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.95,000.00 +
+0.00 @Rp.95,000.00 +
+0.00 @Rp.95,000.00</t>
+  </si>
+  <si>
     <t>Tinta Printech Epson Cyan</t>
   </si>
   <si>
@@ -986,6 +1365,14 @@
 4.00 @Rp.95,000.00</t>
   </si>
   <si>
+    <t>4.00 @Rp.95,000.00 +
+3.00 @Rp.95,000.00 +
+4.00 @Rp.95,000.00 +
+4.00 @Rp.95,000.00 +
+3.00 @Rp.95,000.00 +
+3.00 @Rp.95,000.00</t>
+  </si>
+  <si>
     <t>Tinta Printech Epson Magenta</t>
   </si>
   <si>
@@ -1003,6 +1390,17 @@
 3.00 @Rp.275,000.00</t>
   </si>
   <si>
+    <t>2.00 @Rp.275,000.00</t>
+  </si>
+  <si>
+    <t>3.00 @Rp.275,000.00 +
+3.00 @Rp.275,000.00 +
+5.00 @Rp.270,000.00 +
+3.00 @Rp.270,000.00 +
+2.00 @Rp.270,000.00 +
+3.00 @Rp.275,000.00</t>
+  </si>
+  <si>
     <t>Tinta Refill Warna 100 ml</t>
   </si>
   <si>
@@ -1012,12 +1410,27 @@
 5.00 @Rp.275,000.00</t>
   </si>
   <si>
+    <t>3.00 @Rp.275,000.00 +
+5.00 @Rp.275,000.00 +
+5.00 @Rp.275,000.00 +
+5.00 @Rp.275,000.00</t>
+  </si>
+  <si>
     <t>Tinta Toner Laser</t>
   </si>
   <si>
     <t>1.00 @Rp.1,155,000.00 +
 1.00 @Rp.1,150,000.00 +
 2.00 @Rp.1,150,000.00</t>
+  </si>
+  <si>
+    <t>1.00 @Rp.1,155,000.00 +
+1.00 @Rp.1,150,000.00 +
+1.00 @Rp.1,150,000.00</t>
+  </si>
+  <si>
+    <t>0.00 @Rp.1,150,000.00 +
+1.00 @Rp.1,150,000.00</t>
   </si>
   <si>
     <t>Tissue Basah</t>
@@ -2097,23 +2510,23 @@
         <v>57000.0</v>
       </c>
       <c r="L13" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M13" t="s" s="39">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" t="n" s="5">
-        <v>0.0</v>
+        <v>57000.0</v>
       </c>
       <c r="O13" t="n" s="5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="s" s="39">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="5" t="n">
         <f>H13+K13-N13</f>
-        <v>57000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="true">
@@ -2122,18 +2535,18 @@
         <v>2.0</v>
       </c>
       <c r="B14" t="s" s="40">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
       <c r="E14" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n" s="5">
         <v>5.0</v>
       </c>
       <c r="G14" t="s" s="39">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" t="n" s="5">
         <v>130000.0</v>
@@ -2160,7 +2573,7 @@
         <v>5.0</v>
       </c>
       <c r="P14" t="s" s="39">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="5" t="n">
         <f>H14+K14-N14</f>
@@ -2173,12 +2586,12 @@
         <v>3.0</v>
       </c>
       <c r="B15" t="s" s="40">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="42"/>
       <c r="E15" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n" s="5">
         <v>0.0</v>
@@ -2193,29 +2606,29 @@
         <v>128.0</v>
       </c>
       <c r="J15" t="s" s="39">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" t="n" s="5">
         <v>2930000.0</v>
       </c>
       <c r="L15" t="n" s="5">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="M15" t="s" s="39">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="N15" t="n" s="5">
-        <v>0.0</v>
+        <v>1150000.0</v>
       </c>
       <c r="O15" t="n" s="5">
-        <v>128.0</v>
+        <v>82.0</v>
       </c>
       <c r="P15" t="s" s="39">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="5" t="n">
         <f>H15+K15-N15</f>
-        <v>2930000.0</v>
+        <v>1780000.0</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="true">
@@ -2224,12 +2637,12 @@
         <v>4.0</v>
       </c>
       <c r="B16" t="s" s="40">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="42"/>
       <c r="E16" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n" s="5">
         <v>0.0</v>
@@ -2244,29 +2657,29 @@
         <v>128.0</v>
       </c>
       <c r="J16" t="s" s="39">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K16" t="n" s="5">
         <v>3562000.0</v>
       </c>
       <c r="L16" t="n" s="5">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="M16" t="s" s="39">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N16" t="n" s="5">
-        <v>0.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="O16" t="n" s="5">
-        <v>128.0</v>
+        <v>74.0</v>
       </c>
       <c r="P16" t="s" s="39">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="5" t="n">
         <f>H16+K16-N16</f>
-        <v>3562000.0</v>
+        <v>2057000.0</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="true">
@@ -2275,12 +2688,12 @@
         <v>5.0</v>
       </c>
       <c r="B17" t="s" s="40">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="42"/>
       <c r="E17" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n" s="5">
         <v>0.0</v>
@@ -2295,29 +2708,29 @@
         <v>56.0</v>
       </c>
       <c r="J17" t="s" s="39">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K17" t="n" s="5">
         <v>420000.0</v>
       </c>
       <c r="L17" t="n" s="5">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="M17" t="s" s="39">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N17" t="n" s="5">
-        <v>0.0</v>
+        <v>420000.0</v>
       </c>
       <c r="O17" t="n" s="5">
-        <v>56.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" t="s" s="39">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="5" t="n">
         <f>H17+K17-N17</f>
-        <v>420000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="true">
@@ -2326,12 +2739,12 @@
         <v>6.0</v>
       </c>
       <c r="B18" t="s" s="40">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="42"/>
       <c r="E18" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n" s="5">
         <v>0.0</v>
@@ -2346,29 +2759,29 @@
         <v>44.0</v>
       </c>
       <c r="J18" t="s" s="39">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K18" t="n" s="5">
         <v>1056000.0</v>
       </c>
       <c r="L18" t="n" s="5">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="M18" t="s" s="39">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n" s="5">
-        <v>0.0</v>
+        <v>408000.0</v>
       </c>
       <c r="O18" t="n" s="5">
-        <v>44.0</v>
+        <v>27.0</v>
       </c>
       <c r="P18" t="s" s="39">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="5" t="n">
         <f>H18+K18-N18</f>
-        <v>1056000.0</v>
+        <v>648000.0</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="true">
@@ -2377,12 +2790,12 @@
         <v>7.0</v>
       </c>
       <c r="B19" t="s" s="40">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="42"/>
       <c r="E19" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n" s="5">
         <v>0.0</v>
@@ -2397,29 +2810,29 @@
         <v>163.0</v>
       </c>
       <c r="J19" t="s" s="39">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K19" t="n" s="5">
         <v>255300.0</v>
       </c>
       <c r="L19" t="n" s="5">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="M19" t="s" s="39">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n" s="5">
-        <v>0.0</v>
+        <v>85500.0</v>
       </c>
       <c r="O19" t="n" s="5">
-        <v>163.0</v>
+        <v>108.0</v>
       </c>
       <c r="P19" t="s" s="39">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="5" t="n">
         <f>H19+K19-N19</f>
-        <v>255300.0</v>
+        <v>169800.0</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="true">
@@ -2428,12 +2841,12 @@
         <v>8.0</v>
       </c>
       <c r="B20" t="s" s="40">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
       <c r="E20" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n" s="5">
         <v>0.0</v>
@@ -2448,29 +2861,29 @@
         <v>130.0</v>
       </c>
       <c r="J20" t="s" s="39">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n" s="5">
         <v>408750.0</v>
       </c>
       <c r="L20" t="n" s="5">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="M20" t="s" s="39">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="N20" t="n" s="5">
-        <v>0.0</v>
+        <v>173250.0</v>
       </c>
       <c r="O20" t="n" s="5">
-        <v>130.0</v>
+        <v>75.0</v>
       </c>
       <c r="P20" t="s" s="39">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="5" t="n">
         <f>H20+K20-N20</f>
-        <v>408750.0</v>
+        <v>235500.0</v>
       </c>
     </row>
     <row r="21" ht="30.0" customHeight="true">
@@ -2479,18 +2892,18 @@
         <v>9.0</v>
       </c>
       <c r="B21" t="s" s="40">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="42"/>
       <c r="E21" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" t="n" s="5">
         <v>38.0</v>
       </c>
       <c r="G21" t="s" s="39">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H21" t="n" s="5">
         <v>180500.0</v>
@@ -2499,29 +2912,29 @@
         <v>125.0</v>
       </c>
       <c r="J21" t="s" s="39">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K21" t="n" s="5">
         <v>595250.0</v>
       </c>
       <c r="L21" t="n" s="5">
-        <v>10.0</v>
+        <v>70.0</v>
       </c>
       <c r="M21" t="s" s="39">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N21" t="n" s="5">
-        <v>47500.0</v>
+        <v>334000.0</v>
       </c>
       <c r="O21" t="n" s="5">
-        <v>153.0</v>
+        <v>93.0</v>
       </c>
       <c r="P21" t="s" s="39">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="5" t="n">
         <f>H21+K21-N21</f>
-        <v>728250.0</v>
+        <v>441750.0</v>
       </c>
     </row>
     <row r="22" ht="30.0" customHeight="true">
@@ -2530,12 +2943,12 @@
         <v>10.0</v>
       </c>
       <c r="B22" t="s" s="40">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="42"/>
       <c r="E22" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n" s="5">
         <v>0.0</v>
@@ -2550,29 +2963,29 @@
         <v>120.0</v>
       </c>
       <c r="J22" t="s" s="39">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K22" t="n" s="5">
         <v>693500.0</v>
       </c>
       <c r="L22" t="n" s="5">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="M22" t="s" s="39">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="N22" t="n" s="5">
-        <v>0.0</v>
+        <v>290000.0</v>
       </c>
       <c r="O22" t="n" s="5">
-        <v>120.0</v>
+        <v>70.0</v>
       </c>
       <c r="P22" t="s" s="39">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="5" t="n">
         <f>H22+K22-N22</f>
-        <v>693500.0</v>
+        <v>403500.0</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="true">
@@ -2581,12 +2994,12 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="s" s="40">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="42"/>
       <c r="E23" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n" s="5">
         <v>0.0</v>
@@ -2601,7 +3014,7 @@
         <v>7.0</v>
       </c>
       <c r="J23" t="s" s="39">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K23" t="n" s="5">
         <v>10500.0</v>
@@ -2619,7 +3032,7 @@
         <v>7.0</v>
       </c>
       <c r="P23" t="s" s="39">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="5" t="n">
         <f>H23+K23-N23</f>
@@ -2632,12 +3045,12 @@
         <v>12.0</v>
       </c>
       <c r="B24" t="s" s="40">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="42"/>
       <c r="E24" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n" s="5">
         <v>0.0</v>
@@ -2652,29 +3065,29 @@
         <v>5.0</v>
       </c>
       <c r="J24" t="s" s="39">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K24" t="n" s="5">
         <v>125000.0</v>
       </c>
       <c r="L24" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M24" t="s" s="39">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="N24" t="n" s="5">
-        <v>0.0</v>
+        <v>125000.0</v>
       </c>
       <c r="O24" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" t="s" s="39">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="5" t="n">
         <f>H24+K24-N24</f>
-        <v>125000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="30.0" customHeight="true">
@@ -2683,12 +3096,12 @@
         <v>13.0</v>
       </c>
       <c r="B25" t="s" s="40">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="42"/>
       <c r="E25" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" t="n" s="5">
         <v>0.0</v>
@@ -2703,29 +3116,29 @@
         <v>5.0</v>
       </c>
       <c r="J25" t="s" s="39">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K25" t="n" s="5">
         <v>62500.0</v>
       </c>
       <c r="L25" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M25" t="s" s="39">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="N25" t="n" s="5">
-        <v>0.0</v>
+        <v>62500.0</v>
       </c>
       <c r="O25" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" t="s" s="39">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="5" t="n">
         <f>H25+K25-N25</f>
-        <v>62500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="true">
@@ -2734,12 +3147,12 @@
         <v>14.0</v>
       </c>
       <c r="B26" t="s" s="40">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="42"/>
       <c r="E26" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n" s="5">
         <v>0.0</v>
@@ -2754,29 +3167,29 @@
         <v>1.0</v>
       </c>
       <c r="J26" t="s" s="39">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="K26" t="n" s="5">
         <v>130000.0</v>
       </c>
       <c r="L26" t="n" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M26" t="s" s="39">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="N26" t="n" s="5">
-        <v>0.0</v>
+        <v>130000.0</v>
       </c>
       <c r="O26" t="n" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P26" t="s" s="39">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="5" t="n">
         <f>H26+K26-N26</f>
-        <v>130000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="30.0" customHeight="true">
@@ -2785,12 +3198,12 @@
         <v>15.0</v>
       </c>
       <c r="B27" t="s" s="40">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="42"/>
       <c r="E27" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n" s="5">
         <v>0.0</v>
@@ -2805,29 +3218,29 @@
         <v>3.0</v>
       </c>
       <c r="J27" t="s" s="39">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K27" t="n" s="5">
         <v>900000.0</v>
       </c>
       <c r="L27" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M27" t="s" s="39">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="N27" t="n" s="5">
-        <v>0.0</v>
+        <v>900000.0</v>
       </c>
       <c r="O27" t="n" s="5">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" t="s" s="39">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="Q27" s="5" t="n">
         <f>H27+K27-N27</f>
-        <v>900000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="30.0" customHeight="true">
@@ -2836,12 +3249,12 @@
         <v>16.0</v>
       </c>
       <c r="B28" t="s" s="40">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="42"/>
       <c r="E28" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" t="n" s="5">
         <v>0.0</v>
@@ -2856,29 +3269,29 @@
         <v>10.0</v>
       </c>
       <c r="J28" t="s" s="39">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="K28" t="n" s="5">
         <v>3500000.0</v>
       </c>
       <c r="L28" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M28" t="s" s="39">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="N28" t="n" s="5">
-        <v>0.0</v>
+        <v>700000.0</v>
       </c>
       <c r="O28" t="n" s="5">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="P28" t="s" s="39">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="5" t="n">
         <f>H28+K28-N28</f>
-        <v>3500000.0</v>
+        <v>2800000.0</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="true">
@@ -2887,12 +3300,12 @@
         <v>17.0</v>
       </c>
       <c r="B29" t="s" s="40">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="42"/>
       <c r="E29" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n" s="5">
         <v>0.0</v>
@@ -2907,29 +3320,29 @@
         <v>6.0</v>
       </c>
       <c r="J29" t="s" s="39">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="K29" t="n" s="5">
         <v>1350000.0</v>
       </c>
       <c r="L29" t="n" s="5">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="M29" t="s" s="39">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="N29" t="n" s="5">
-        <v>0.0</v>
+        <v>1350000.0</v>
       </c>
       <c r="O29" t="n" s="5">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" t="s" s="39">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="5" t="n">
         <f>H29+K29-N29</f>
-        <v>1350000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="true">
@@ -2938,12 +3351,12 @@
         <v>18.0</v>
       </c>
       <c r="B30" t="s" s="40">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="42"/>
       <c r="E30" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" t="n" s="5">
         <v>0.0</v>
@@ -2958,29 +3371,29 @@
         <v>6.0</v>
       </c>
       <c r="J30" t="s" s="39">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K30" t="n" s="5">
         <v>1410000.0</v>
       </c>
       <c r="L30" t="n" s="5">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="M30" t="s" s="39">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="N30" t="n" s="5">
-        <v>0.0</v>
+        <v>1410000.0</v>
       </c>
       <c r="O30" t="n" s="5">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="s" s="39">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="Q30" s="5" t="n">
         <f>H30+K30-N30</f>
-        <v>1410000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="true">
@@ -2989,12 +3402,12 @@
         <v>19.0</v>
       </c>
       <c r="B31" t="s" s="40">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="42"/>
       <c r="E31" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" t="n" s="5">
         <v>0.0</v>
@@ -3009,29 +3422,29 @@
         <v>10.0</v>
       </c>
       <c r="J31" t="s" s="39">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="K31" t="n" s="5">
         <v>3800000.0</v>
       </c>
       <c r="L31" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M31" t="s" s="39">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="N31" t="n" s="5">
-        <v>0.0</v>
+        <v>760000.0</v>
       </c>
       <c r="O31" t="n" s="5">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="P31" t="s" s="39">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Q31" s="5" t="n">
         <f>H31+K31-N31</f>
-        <v>3800000.0</v>
+        <v>3040000.0</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="true">
@@ -3040,12 +3453,12 @@
         <v>20.0</v>
       </c>
       <c r="B32" t="s" s="40">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="42"/>
       <c r="E32" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" t="n" s="5">
         <v>0.0</v>
@@ -3060,7 +3473,7 @@
         <v>15.0</v>
       </c>
       <c r="J32" t="s" s="39">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="K32" t="n" s="5">
         <v>345000.0</v>
@@ -3078,7 +3491,7 @@
         <v>15.0</v>
       </c>
       <c r="P32" t="s" s="39">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="Q32" s="5" t="n">
         <f>H32+K32-N32</f>
@@ -3091,12 +3504,12 @@
         <v>21.0</v>
       </c>
       <c r="B33" t="s" s="40">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C33" s="41"/>
       <c r="D33" s="42"/>
       <c r="E33" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n" s="5">
         <v>0.0</v>
@@ -3111,29 +3524,29 @@
         <v>8.0</v>
       </c>
       <c r="J33" t="s" s="39">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="K33" t="n" s="5">
         <v>98500.0</v>
       </c>
       <c r="L33" t="n" s="5">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="M33" t="s" s="39">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="N33" t="n" s="5">
-        <v>0.0</v>
+        <v>98500.0</v>
       </c>
       <c r="O33" t="n" s="5">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="P33" t="s" s="39">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Q33" s="5" t="n">
         <f>H33+K33-N33</f>
-        <v>98500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="30.0" customHeight="true">
@@ -3142,12 +3555,12 @@
         <v>22.0</v>
       </c>
       <c r="B34" t="s" s="40">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="42"/>
       <c r="E34" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n" s="5">
         <v>0.0</v>
@@ -3162,29 +3575,29 @@
         <v>9.0</v>
       </c>
       <c r="J34" t="s" s="39">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="K34" t="n" s="5">
         <v>78000.0</v>
       </c>
       <c r="L34" t="n" s="5">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="M34" t="s" s="39">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="N34" t="n" s="5">
-        <v>0.0</v>
+        <v>50500.0</v>
       </c>
       <c r="O34" t="n" s="5">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="P34" t="s" s="39">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="Q34" s="5" t="n">
         <f>H34+K34-N34</f>
-        <v>78000.0</v>
+        <v>27500.0</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="true">
@@ -3193,7 +3606,7 @@
         <v>23.0</v>
       </c>
       <c r="B35" t="s" s="40">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="42"/>
@@ -3213,29 +3626,29 @@
         <v>4.0</v>
       </c>
       <c r="J35" t="s" s="39">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K35" t="n" s="5">
         <v>176400.0</v>
       </c>
       <c r="L35" t="n" s="5">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M35" t="s" s="39">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="N35" t="n" s="5">
-        <v>0.0</v>
+        <v>176400.0</v>
       </c>
       <c r="O35" t="n" s="5">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P35" t="s" s="39">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="Q35" s="5" t="n">
         <f>H35+K35-N35</f>
-        <v>176400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="true">
@@ -3244,7 +3657,7 @@
         <v>24.0</v>
       </c>
       <c r="B36" t="s" s="40">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="42"/>
@@ -3264,29 +3677,29 @@
         <v>3.0</v>
       </c>
       <c r="J36" t="s" s="39">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="K36" t="n" s="5">
         <v>128100.0</v>
       </c>
       <c r="L36" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M36" t="s" s="39">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="N36" t="n" s="5">
-        <v>0.0</v>
+        <v>128100.0</v>
       </c>
       <c r="O36" t="n" s="5">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="s" s="39">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="Q36" s="5" t="n">
         <f>H36+K36-N36</f>
-        <v>128100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="30.0" customHeight="true">
@@ -3295,12 +3708,12 @@
         <v>25.0</v>
       </c>
       <c r="B37" t="s" s="40">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="42"/>
       <c r="E37" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" t="n" s="5">
         <v>0.0</v>
@@ -3315,7 +3728,7 @@
         <v>31.0</v>
       </c>
       <c r="J37" t="s" s="39">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="K37" t="n" s="5">
         <v>465000.0</v>
@@ -3333,7 +3746,7 @@
         <v>31.0</v>
       </c>
       <c r="P37" t="s" s="39">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="Q37" s="5" t="n">
         <f>H37+K37-N37</f>
@@ -3346,12 +3759,12 @@
         <v>26.0</v>
       </c>
       <c r="B38" t="s" s="40">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="42"/>
       <c r="E38" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F38" t="n" s="5">
         <v>0.0</v>
@@ -3366,29 +3779,29 @@
         <v>9.0</v>
       </c>
       <c r="J38" t="s" s="39">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="K38" t="n" s="5">
         <v>1520000.0</v>
       </c>
       <c r="L38" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M38" t="s" s="39">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="N38" t="n" s="5">
-        <v>0.0</v>
+        <v>880000.0</v>
       </c>
       <c r="O38" t="n" s="5">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="P38" t="s" s="39">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="Q38" s="5" t="n">
         <f>H38+K38-N38</f>
-        <v>1520000.0</v>
+        <v>640000.0</v>
       </c>
     </row>
     <row r="39" ht="30.0" customHeight="true">
@@ -3397,12 +3810,12 @@
         <v>27.0</v>
       </c>
       <c r="B39" t="s" s="40">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="42"/>
       <c r="E39" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" t="n" s="5">
         <v>0.0</v>
@@ -3417,7 +3830,7 @@
         <v>2.0</v>
       </c>
       <c r="J39" t="s" s="39">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="K39" t="n" s="5">
         <v>45000.0</v>
@@ -3435,7 +3848,7 @@
         <v>2.0</v>
       </c>
       <c r="P39" t="s" s="39">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="Q39" s="5" t="n">
         <f>H39+K39-N39</f>
@@ -3448,12 +3861,12 @@
         <v>28.0</v>
       </c>
       <c r="B40" t="s" s="40">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="42"/>
       <c r="E40" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F40" t="n" s="5">
         <v>0.0</v>
@@ -3468,7 +3881,7 @@
         <v>12.0</v>
       </c>
       <c r="J40" t="s" s="39">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="K40" t="n" s="5">
         <v>312000.0</v>
@@ -3486,7 +3899,7 @@
         <v>12.0</v>
       </c>
       <c r="P40" t="s" s="39">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="Q40" s="5" t="n">
         <f>H40+K40-N40</f>
@@ -3499,12 +3912,12 @@
         <v>29.0</v>
       </c>
       <c r="B41" t="s" s="40">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="42"/>
       <c r="E41" t="s" s="12">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F41" t="n" s="5">
         <v>0.0</v>
@@ -3519,29 +3932,29 @@
         <v>5.0</v>
       </c>
       <c r="J41" t="s" s="39">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="K41" t="n" s="5">
         <v>175000.0</v>
       </c>
       <c r="L41" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M41" t="s" s="39">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="N41" t="n" s="5">
-        <v>0.0</v>
+        <v>175000.0</v>
       </c>
       <c r="O41" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P41" t="s" s="39">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="Q41" s="5" t="n">
         <f>H41+K41-N41</f>
-        <v>175000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="30.0" customHeight="true">
@@ -3550,12 +3963,12 @@
         <v>30.0</v>
       </c>
       <c r="B42" t="s" s="40">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="42"/>
       <c r="E42" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42" t="n" s="5">
         <v>0.0</v>
@@ -3570,29 +3983,29 @@
         <v>10.0</v>
       </c>
       <c r="J42" t="s" s="39">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K42" t="n" s="5">
         <v>220000.0</v>
       </c>
       <c r="L42" t="n" s="5">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M42" t="s" s="39">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="N42" t="n" s="5">
-        <v>0.0</v>
+        <v>220000.0</v>
       </c>
       <c r="O42" t="n" s="5">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="P42" t="s" s="39">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="Q42" s="5" t="n">
         <f>H42+K42-N42</f>
-        <v>220000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="30.0" customHeight="true">
@@ -3601,12 +4014,12 @@
         <v>31.0</v>
       </c>
       <c r="B43" t="s" s="40">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
       <c r="E43" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" t="n" s="5">
         <v>0.0</v>
@@ -3621,29 +4034,29 @@
         <v>8.0</v>
       </c>
       <c r="J43" t="s" s="39">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="K43" t="n" s="5">
         <v>148000.0</v>
       </c>
       <c r="L43" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M43" t="s" s="39">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="N43" t="n" s="5">
-        <v>0.0</v>
+        <v>37000.0</v>
       </c>
       <c r="O43" t="n" s="5">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="P43" t="s" s="39">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="Q43" s="5" t="n">
         <f>H43+K43-N43</f>
-        <v>148000.0</v>
+        <v>111000.0</v>
       </c>
     </row>
     <row r="44" ht="30.0" customHeight="true">
@@ -3652,12 +4065,12 @@
         <v>32.0</v>
       </c>
       <c r="B44" t="s" s="40">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="42"/>
       <c r="E44" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F44" t="n" s="5">
         <v>0.0</v>
@@ -3672,7 +4085,7 @@
         <v>5.0</v>
       </c>
       <c r="J44" t="s" s="39">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="K44" t="n" s="5">
         <v>2200000.0</v>
@@ -3690,7 +4103,7 @@
         <v>5.0</v>
       </c>
       <c r="P44" t="s" s="39">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="Q44" s="5" t="n">
         <f>H44+K44-N44</f>
@@ -3703,12 +4116,12 @@
         <v>33.0</v>
       </c>
       <c r="B45" t="s" s="40">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C45" s="41"/>
       <c r="D45" s="42"/>
       <c r="E45" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F45" t="n" s="5">
         <v>0.0</v>
@@ -3723,7 +4136,7 @@
         <v>10.0</v>
       </c>
       <c r="J45" t="s" s="39">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="K45" t="n" s="5">
         <v>1200000.0</v>
@@ -3741,7 +4154,7 @@
         <v>10.0</v>
       </c>
       <c r="P45" t="s" s="39">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="Q45" s="5" t="n">
         <f>H45+K45-N45</f>
@@ -3754,12 +4167,12 @@
         <v>34.0</v>
       </c>
       <c r="B46" t="s" s="40">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="42"/>
       <c r="E46" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" t="n" s="5">
         <v>0.0</v>
@@ -3774,29 +4187,29 @@
         <v>12.0</v>
       </c>
       <c r="J46" t="s" s="39">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="K46" t="n" s="5">
         <v>146500.0</v>
       </c>
       <c r="L46" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M46" t="s" s="39">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="N46" t="n" s="5">
-        <v>0.0</v>
+        <v>62500.0</v>
       </c>
       <c r="O46" t="n" s="5">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="P46" t="s" s="39">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="Q46" s="5" t="n">
         <f>H46+K46-N46</f>
-        <v>146500.0</v>
+        <v>84000.0</v>
       </c>
     </row>
     <row r="47" ht="30.0" customHeight="true">
@@ -3805,12 +4218,12 @@
         <v>35.0</v>
       </c>
       <c r="B47" t="s" s="40">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="42"/>
       <c r="E47" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" t="n" s="5">
         <v>0.0</v>
@@ -3825,29 +4238,29 @@
         <v>5.0</v>
       </c>
       <c r="J47" t="s" s="39">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="K47" t="n" s="5">
         <v>120000.0</v>
       </c>
       <c r="L47" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M47" t="s" s="39">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="N47" t="n" s="5">
-        <v>0.0</v>
+        <v>120000.0</v>
       </c>
       <c r="O47" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P47" t="s" s="39">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="Q47" s="5" t="n">
         <f>H47+K47-N47</f>
-        <v>120000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48" ht="30.0" customHeight="true">
@@ -3856,12 +4269,12 @@
         <v>36.0</v>
       </c>
       <c r="B48" t="s" s="40">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
       <c r="E48" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" t="n" s="5">
         <v>0.0</v>
@@ -3876,29 +4289,29 @@
         <v>5.0</v>
       </c>
       <c r="J48" t="s" s="39">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K48" t="n" s="5">
         <v>62500.0</v>
       </c>
       <c r="L48" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M48" t="s" s="39">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="N48" t="n" s="5">
-        <v>0.0</v>
+        <v>62500.0</v>
       </c>
       <c r="O48" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P48" t="s" s="39">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="Q48" s="5" t="n">
         <f>H48+K48-N48</f>
-        <v>62500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49" ht="30.0" customHeight="true">
@@ -3907,12 +4320,12 @@
         <v>37.0</v>
       </c>
       <c r="B49" t="s" s="40">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
       <c r="E49" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" t="n" s="5">
         <v>0.0</v>
@@ -3927,29 +4340,29 @@
         <v>13.0</v>
       </c>
       <c r="J49" t="s" s="39">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="K49" t="n" s="5">
         <v>90750.0</v>
       </c>
       <c r="L49" t="n" s="5">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M49" t="s" s="39">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="N49" t="n" s="5">
-        <v>0.0</v>
+        <v>28000.0</v>
       </c>
       <c r="O49" t="n" s="5">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="P49" t="s" s="39">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="Q49" s="5" t="n">
         <f>H49+K49-N49</f>
-        <v>90750.0</v>
+        <v>62750.0</v>
       </c>
     </row>
     <row r="50" ht="30.0" customHeight="true">
@@ -3958,18 +4371,18 @@
         <v>38.0</v>
       </c>
       <c r="B50" t="s" s="40">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C50" s="41"/>
       <c r="D50" s="42"/>
       <c r="E50" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" t="n" s="5">
         <v>10.0</v>
       </c>
       <c r="G50" t="s" s="39">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="H50" t="n" s="5">
         <v>47250.0</v>
@@ -3978,29 +4391,29 @@
         <v>16.0</v>
       </c>
       <c r="J50" t="s" s="39">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="K50" t="n" s="5">
         <v>91600.0</v>
       </c>
       <c r="L50" t="n" s="5">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="M50" t="s" s="39">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="N50" t="n" s="5">
-        <v>0.0</v>
+        <v>110650.0</v>
       </c>
       <c r="O50" t="n" s="5">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="P50" t="s" s="39">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="Q50" s="5" t="n">
         <f>H50+K50-N50</f>
-        <v>138850.0</v>
+        <v>28200.0</v>
       </c>
     </row>
     <row r="51" ht="30.0" customHeight="true">
@@ -4009,7 +4422,7 @@
         <v>39.0</v>
       </c>
       <c r="B51" t="s" s="40">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="42"/>
@@ -4029,29 +4442,29 @@
         <v>5.0</v>
       </c>
       <c r="J51" t="s" s="39">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="K51" t="n" s="5">
         <v>900000.0</v>
       </c>
       <c r="L51" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M51" t="s" s="39">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="N51" t="n" s="5">
-        <v>0.0</v>
+        <v>900000.0</v>
       </c>
       <c r="O51" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P51" t="s" s="39">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="Q51" s="5" t="n">
         <f>H51+K51-N51</f>
-        <v>900000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52" ht="30.0" customHeight="true">
@@ -4060,12 +4473,12 @@
         <v>40.0</v>
       </c>
       <c r="B52" t="s" s="40">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="42"/>
       <c r="E52" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" t="n" s="5">
         <v>0.0</v>
@@ -4080,7 +4493,7 @@
         <v>2.0</v>
       </c>
       <c r="J52" t="s" s="39">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="K52" t="n" s="5">
         <v>38000.0</v>
@@ -4098,7 +4511,7 @@
         <v>2.0</v>
       </c>
       <c r="P52" t="s" s="39">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="Q52" s="5" t="n">
         <f>H52+K52-N52</f>
@@ -4111,12 +4524,12 @@
         <v>41.0</v>
       </c>
       <c r="B53" t="s" s="40">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C53" s="41"/>
       <c r="D53" s="42"/>
       <c r="E53" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" t="n" s="5">
         <v>0.0</v>
@@ -4131,7 +4544,7 @@
         <v>4.0</v>
       </c>
       <c r="J53" t="s" s="39">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="K53" t="n" s="5">
         <v>126000.0</v>
@@ -4149,7 +4562,7 @@
         <v>4.0</v>
       </c>
       <c r="P53" t="s" s="39">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="Q53" s="5" t="n">
         <f>H53+K53-N53</f>
@@ -4162,12 +4575,12 @@
         <v>42.0</v>
       </c>
       <c r="B54" t="s" s="40">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="C54" s="41"/>
       <c r="D54" s="42"/>
       <c r="E54" t="s" s="12">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="F54" t="n" s="5">
         <v>0.0</v>
@@ -4182,29 +4595,29 @@
         <v>13.0</v>
       </c>
       <c r="J54" t="s" s="39">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="K54" t="n" s="5">
         <v>586000.0</v>
       </c>
       <c r="L54" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M54" t="s" s="39">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="N54" t="n" s="5">
-        <v>0.0</v>
+        <v>230000.0</v>
       </c>
       <c r="O54" t="n" s="5">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="P54" t="s" s="39">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="Q54" s="5" t="n">
         <f>H54+K54-N54</f>
-        <v>586000.0</v>
+        <v>356000.0</v>
       </c>
     </row>
     <row r="55" ht="30.0" customHeight="true">
@@ -4213,18 +4626,18 @@
         <v>43.0</v>
       </c>
       <c r="B55" t="s" s="40">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C55" s="41"/>
       <c r="D55" s="42"/>
       <c r="E55" t="s" s="12">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="F55" t="n" s="5">
         <v>5.0</v>
       </c>
       <c r="G55" t="s" s="39">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="H55" t="n" s="5">
         <v>288750.0</v>
@@ -4233,29 +4646,29 @@
         <v>250.0</v>
       </c>
       <c r="J55" t="s" s="39">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="K55" t="n" s="5">
         <v>1.4052E7</v>
       </c>
       <c r="L55" t="n" s="5">
-        <v>0.0</v>
+        <v>170.0</v>
       </c>
       <c r="M55" t="s" s="39">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="N55" t="n" s="5">
-        <v>0.0</v>
+        <v>9454500.0</v>
       </c>
       <c r="O55" t="n" s="5">
-        <v>255.0</v>
+        <v>85.0</v>
       </c>
       <c r="P55" t="s" s="39">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="Q55" s="5" t="n">
         <f>H55+K55-N55</f>
-        <v>1.434075E7</v>
+        <v>4886250.0</v>
       </c>
     </row>
     <row r="56" ht="30.0" customHeight="true">
@@ -4264,12 +4677,12 @@
         <v>44.0</v>
       </c>
       <c r="B56" t="s" s="40">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="42"/>
       <c r="E56" t="s" s="12">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="F56" t="n" s="5">
         <v>0.0</v>
@@ -4284,29 +4697,29 @@
         <v>62.0</v>
       </c>
       <c r="J56" t="s" s="39">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="K56" t="n" s="5">
         <v>4179000.0</v>
       </c>
       <c r="L56" t="n" s="5">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="M56" t="s" s="39">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="N56" t="n" s="5">
-        <v>0.0</v>
+        <v>4179000.0</v>
       </c>
       <c r="O56" t="n" s="5">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
       <c r="P56" t="s" s="39">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="Q56" s="5" t="n">
         <f>H56+K56-N56</f>
-        <v>4179000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57" ht="30.0" customHeight="true">
@@ -4315,12 +4728,12 @@
         <v>45.0</v>
       </c>
       <c r="B57" t="s" s="40">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="42"/>
       <c r="E57" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" t="n" s="5">
         <v>0.0</v>
@@ -4335,7 +4748,7 @@
         <v>3.0</v>
       </c>
       <c r="J57" t="s" s="39">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="K57" t="n" s="5">
         <v>31500.0</v>
@@ -4353,7 +4766,7 @@
         <v>3.0</v>
       </c>
       <c r="P57" t="s" s="39">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="Q57" s="5" t="n">
         <f>H57+K57-N57</f>
@@ -4366,12 +4779,12 @@
         <v>46.0</v>
       </c>
       <c r="B58" t="s" s="40">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="C58" s="41"/>
       <c r="D58" s="42"/>
       <c r="E58" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F58" t="n" s="5">
         <v>0.0</v>
@@ -4386,7 +4799,7 @@
         <v>22.0</v>
       </c>
       <c r="J58" t="s" s="39">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="K58" t="n" s="5">
         <v>1650000.0</v>
@@ -4404,7 +4817,7 @@
         <v>22.0</v>
       </c>
       <c r="P58" t="s" s="39">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="Q58" s="5" t="n">
         <f>H58+K58-N58</f>
@@ -4417,12 +4830,12 @@
         <v>47.0</v>
       </c>
       <c r="B59" t="s" s="40">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="C59" s="41"/>
       <c r="D59" s="42"/>
       <c r="E59" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F59" t="n" s="5">
         <v>0.0</v>
@@ -4437,7 +4850,7 @@
         <v>18.0</v>
       </c>
       <c r="J59" t="s" s="39">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="K59" t="n" s="5">
         <v>1530000.0</v>
@@ -4455,7 +4868,7 @@
         <v>18.0</v>
       </c>
       <c r="P59" t="s" s="39">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="Q59" s="5" t="n">
         <f>H59+K59-N59</f>
@@ -4468,12 +4881,12 @@
         <v>48.0</v>
       </c>
       <c r="B60" t="s" s="40">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="C60" s="41"/>
       <c r="D60" s="42"/>
       <c r="E60" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F60" t="n" s="5">
         <v>0.0</v>
@@ -4488,7 +4901,7 @@
         <v>4.0</v>
       </c>
       <c r="J60" t="s" s="39">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="K60" t="n" s="5">
         <v>740000.0</v>
@@ -4506,7 +4919,7 @@
         <v>4.0</v>
       </c>
       <c r="P60" t="s" s="39">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="Q60" s="5" t="n">
         <f>H60+K60-N60</f>
@@ -4519,12 +4932,12 @@
         <v>49.0</v>
       </c>
       <c r="B61" t="s" s="40">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="C61" s="41"/>
       <c r="D61" s="42"/>
       <c r="E61" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61" t="n" s="5">
         <v>0.0</v>
@@ -4539,29 +4952,29 @@
         <v>1.0</v>
       </c>
       <c r="J61" t="s" s="39">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="K61" t="n" s="5">
         <v>7000.0</v>
       </c>
       <c r="L61" t="n" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M61" t="s" s="39">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="N61" t="n" s="5">
-        <v>0.0</v>
+        <v>7000.0</v>
       </c>
       <c r="O61" t="n" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P61" t="s" s="39">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="Q61" s="5" t="n">
         <f>H61+K61-N61</f>
-        <v>7000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62" ht="30.0" customHeight="true">
@@ -4570,12 +4983,12 @@
         <v>50.0</v>
       </c>
       <c r="B62" t="s" s="40">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="C62" s="41"/>
       <c r="D62" s="42"/>
       <c r="E62" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F62" t="n" s="5">
         <v>0.0</v>
@@ -4590,29 +5003,29 @@
         <v>51.0</v>
       </c>
       <c r="J62" t="s" s="39">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="K62" t="n" s="5">
         <v>76500.0</v>
       </c>
       <c r="L62" t="n" s="5">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="M62" t="s" s="39">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="N62" t="n" s="5">
-        <v>0.0</v>
+        <v>76500.0</v>
       </c>
       <c r="O62" t="n" s="5">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="P62" t="s" s="39">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="Q62" s="5" t="n">
         <f>H62+K62-N62</f>
-        <v>76500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63" ht="30.0" customHeight="true">
@@ -4621,18 +5034,18 @@
         <v>51.0</v>
       </c>
       <c r="B63" t="s" s="40">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="C63" s="41"/>
       <c r="D63" s="42"/>
       <c r="E63" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F63" t="n" s="5">
         <v>50.0</v>
       </c>
       <c r="G63" t="s" s="39">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="H63" t="n" s="5">
         <v>250000.0</v>
@@ -4641,29 +5054,29 @@
         <v>1215.0</v>
       </c>
       <c r="J63" t="s" s="39">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="K63" t="n" s="5">
         <v>6575000.0</v>
       </c>
       <c r="L63" t="n" s="5">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="M63" t="s" s="39">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="N63" t="n" s="5">
-        <v>0.0</v>
+        <v>4450000.0</v>
       </c>
       <c r="O63" t="n" s="5">
-        <v>1265.0</v>
+        <v>425.0</v>
       </c>
       <c r="P63" t="s" s="39">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="Q63" s="5" t="n">
         <f>H63+K63-N63</f>
-        <v>6825000.0</v>
+        <v>2375000.0</v>
       </c>
     </row>
     <row r="64" ht="30.0" customHeight="true">
@@ -4672,12 +5085,12 @@
         <v>52.0</v>
       </c>
       <c r="B64" t="s" s="40">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C64" s="41"/>
       <c r="D64" s="42"/>
       <c r="E64" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64" t="n" s="5">
         <v>0.0</v>
@@ -4692,29 +5105,29 @@
         <v>100.0</v>
       </c>
       <c r="J64" t="s" s="39">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="K64" t="n" s="5">
         <v>156250.0</v>
       </c>
       <c r="L64" t="n" s="5">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="M64" t="s" s="39">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="N64" t="n" s="5">
-        <v>0.0</v>
+        <v>78750.0</v>
       </c>
       <c r="O64" t="n" s="5">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="P64" t="s" s="39">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="Q64" s="5" t="n">
         <f>H64+K64-N64</f>
-        <v>156250.0</v>
+        <v>77500.0</v>
       </c>
     </row>
     <row r="65" ht="30.0" customHeight="true">
@@ -4723,12 +5136,12 @@
         <v>53.0</v>
       </c>
       <c r="B65" t="s" s="40">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="C65" s="41"/>
       <c r="D65" s="42"/>
       <c r="E65" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65" t="n" s="5">
         <v>0.0</v>
@@ -4743,7 +5156,7 @@
         <v>220.0</v>
       </c>
       <c r="J65" t="s" s="39">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="K65" t="n" s="5">
         <v>4400000.0</v>
@@ -4761,7 +5174,7 @@
         <v>220.0</v>
       </c>
       <c r="P65" t="s" s="39">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="Q65" s="5" t="n">
         <f>H65+K65-N65</f>
@@ -4774,12 +5187,12 @@
         <v>54.0</v>
       </c>
       <c r="B66" t="s" s="40">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C66" s="41"/>
       <c r="D66" s="42"/>
       <c r="E66" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" t="n" s="5">
         <v>0.0</v>
@@ -4794,29 +5207,29 @@
         <v>2550.0</v>
       </c>
       <c r="J66" t="s" s="39">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="K66" t="n" s="5">
         <v>1.53E7</v>
       </c>
       <c r="L66" t="n" s="5">
-        <v>0.0</v>
+        <v>750.0</v>
       </c>
       <c r="M66" t="s" s="39">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="N66" t="n" s="5">
-        <v>0.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="O66" t="n" s="5">
-        <v>2550.0</v>
+        <v>1800.0</v>
       </c>
       <c r="P66" t="s" s="39">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="Q66" s="5" t="n">
         <f>H66+K66-N66</f>
-        <v>1.53E7</v>
+        <v>1.08E7</v>
       </c>
     </row>
     <row r="67" ht="30.0" customHeight="true">
@@ -4825,12 +5238,12 @@
         <v>55.0</v>
       </c>
       <c r="B67" t="s" s="40">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="C67" s="41"/>
       <c r="D67" s="42"/>
       <c r="E67" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F67" t="n" s="5">
         <v>0.0</v>
@@ -4845,29 +5258,29 @@
         <v>3.0</v>
       </c>
       <c r="J67" t="s" s="39">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="K67" t="n" s="5">
         <v>120000.0</v>
       </c>
       <c r="L67" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M67" t="s" s="39">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="N67" t="n" s="5">
-        <v>0.0</v>
+        <v>120000.0</v>
       </c>
       <c r="O67" t="n" s="5">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P67" t="s" s="39">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="Q67" s="5" t="n">
         <f>H67+K67-N67</f>
-        <v>120000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68" ht="30.0" customHeight="true">
@@ -4876,12 +5289,12 @@
         <v>56.0</v>
       </c>
       <c r="B68" t="s" s="40">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="C68" s="41"/>
       <c r="D68" s="42"/>
       <c r="E68" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" t="n" s="5">
         <v>0.0</v>
@@ -4896,29 +5309,29 @@
         <v>3.0</v>
       </c>
       <c r="J68" t="s" s="39">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="K68" t="n" s="5">
         <v>405000.0</v>
       </c>
       <c r="L68" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M68" t="s" s="39">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="N68" t="n" s="5">
-        <v>0.0</v>
+        <v>405000.0</v>
       </c>
       <c r="O68" t="n" s="5">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P68" t="s" s="39">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="Q68" s="5" t="n">
         <f>H68+K68-N68</f>
-        <v>405000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69" ht="30.0" customHeight="true">
@@ -4927,12 +5340,12 @@
         <v>57.0</v>
       </c>
       <c r="B69" t="s" s="40">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="42"/>
       <c r="E69" t="s" s="12">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="F69" t="n" s="5">
         <v>0.0</v>
@@ -4947,7 +5360,7 @@
         <v>16.0</v>
       </c>
       <c r="J69" t="s" s="39">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="K69" t="n" s="5">
         <v>192000.0</v>
@@ -4965,7 +5378,7 @@
         <v>16.0</v>
       </c>
       <c r="P69" t="s" s="39">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="Q69" s="5" t="n">
         <f>H69+K69-N69</f>
@@ -4978,12 +5391,12 @@
         <v>58.0</v>
       </c>
       <c r="B70" t="s" s="40">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="C70" s="41"/>
       <c r="D70" s="42"/>
       <c r="E70" t="s" s="12">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="F70" t="n" s="5">
         <v>0.0</v>
@@ -4998,7 +5411,7 @@
         <v>8.0</v>
       </c>
       <c r="J70" t="s" s="39">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="K70" t="n" s="5">
         <v>248000.0</v>
@@ -5016,7 +5429,7 @@
         <v>8.0</v>
       </c>
       <c r="P70" t="s" s="39">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="Q70" s="5" t="n">
         <f>H70+K70-N70</f>
@@ -5029,12 +5442,12 @@
         <v>59.0</v>
       </c>
       <c r="B71" t="s" s="40">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="C71" s="41"/>
       <c r="D71" s="42"/>
       <c r="E71" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F71" t="n" s="5">
         <v>0.0</v>
@@ -5049,7 +5462,7 @@
         <v>10.0</v>
       </c>
       <c r="J71" t="s" s="39">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="K71" t="n" s="5">
         <v>285000.0</v>
@@ -5067,7 +5480,7 @@
         <v>10.0</v>
       </c>
       <c r="P71" t="s" s="39">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="Q71" s="5" t="n">
         <f>H71+K71-N71</f>
@@ -5080,12 +5493,12 @@
         <v>60.0</v>
       </c>
       <c r="B72" t="s" s="40">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="C72" s="41"/>
       <c r="D72" s="42"/>
       <c r="E72" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72" t="n" s="5">
         <v>0.0</v>
@@ -5100,29 +5513,29 @@
         <v>73.0</v>
       </c>
       <c r="J72" t="s" s="39">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="K72" t="n" s="5">
         <v>2044000.0</v>
       </c>
       <c r="L72" t="n" s="5">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="M72" t="s" s="39">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="N72" t="n" s="5">
-        <v>0.0</v>
+        <v>1400000.0</v>
       </c>
       <c r="O72" t="n" s="5">
-        <v>73.0</v>
+        <v>23.0</v>
       </c>
       <c r="P72" t="s" s="39">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="Q72" s="5" t="n">
         <f>H72+K72-N72</f>
-        <v>2044000.0</v>
+        <v>644000.0</v>
       </c>
     </row>
     <row r="73" ht="30.0" customHeight="true">
@@ -5131,7 +5544,7 @@
         <v>61.0</v>
       </c>
       <c r="B73" t="s" s="40">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C73" s="41"/>
       <c r="D73" s="42"/>
@@ -5151,29 +5564,29 @@
         <v>5.0</v>
       </c>
       <c r="J73" t="s" s="39">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K73" t="n" s="5">
         <v>25000.0</v>
       </c>
       <c r="L73" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M73" t="s" s="39">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="N73" t="n" s="5">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="O73" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P73" t="s" s="39">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="Q73" s="5" t="n">
         <f>H73+K73-N73</f>
-        <v>25000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74" ht="30.0" customHeight="true">
@@ -5182,12 +5595,12 @@
         <v>62.0</v>
       </c>
       <c r="B74" t="s" s="40">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="42"/>
       <c r="E74" t="s" s="12">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="F74" t="n" s="5">
         <v>0.0</v>
@@ -5202,7 +5615,7 @@
         <v>22.0</v>
       </c>
       <c r="J74" t="s" s="39">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="K74" t="n" s="5">
         <v>275000.0</v>
@@ -5220,7 +5633,7 @@
         <v>22.0</v>
       </c>
       <c r="P74" t="s" s="39">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="Q74" s="5" t="n">
         <f>H74+K74-N74</f>
@@ -5233,12 +5646,12 @@
         <v>63.0</v>
       </c>
       <c r="B75" t="s" s="40">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="C75" s="41"/>
       <c r="D75" s="42"/>
       <c r="E75" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" t="n" s="5">
         <v>0.0</v>
@@ -5253,7 +5666,7 @@
         <v>16.0</v>
       </c>
       <c r="J75" t="s" s="39">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="K75" t="n" s="5">
         <v>208000.0</v>
@@ -5271,7 +5684,7 @@
         <v>16.0</v>
       </c>
       <c r="P75" t="s" s="39">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="Q75" s="5" t="n">
         <f>H75+K75-N75</f>
@@ -5284,12 +5697,12 @@
         <v>64.0</v>
       </c>
       <c r="B76" t="s" s="40">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="C76" s="41"/>
       <c r="D76" s="42"/>
       <c r="E76" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F76" t="n" s="5">
         <v>0.0</v>
@@ -5304,7 +5717,7 @@
         <v>11.0</v>
       </c>
       <c r="J76" t="s" s="39">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="K76" t="n" s="5">
         <v>165000.0</v>
@@ -5322,7 +5735,7 @@
         <v>11.0</v>
       </c>
       <c r="P76" t="s" s="39">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="Q76" s="5" t="n">
         <f>H76+K76-N76</f>
@@ -5335,12 +5748,12 @@
         <v>65.0</v>
       </c>
       <c r="B77" t="s" s="40">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="C77" s="41"/>
       <c r="D77" s="42"/>
       <c r="E77" t="s" s="12">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="F77" t="n" s="5">
         <v>0.0</v>
@@ -5355,7 +5768,7 @@
         <v>12.0</v>
       </c>
       <c r="J77" t="s" s="39">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="K77" t="n" s="5">
         <v>198000.0</v>
@@ -5373,7 +5786,7 @@
         <v>12.0</v>
       </c>
       <c r="P77" t="s" s="39">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="Q77" s="5" t="n">
         <f>H77+K77-N77</f>
@@ -5386,12 +5799,12 @@
         <v>66.0</v>
       </c>
       <c r="B78" t="s" s="40">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="C78" s="41"/>
       <c r="D78" s="42"/>
       <c r="E78" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F78" t="n" s="5">
         <v>0.0</v>
@@ -5406,29 +5819,29 @@
         <v>1.0</v>
       </c>
       <c r="J78" t="s" s="39">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="K78" t="n" s="5">
         <v>50000.0</v>
       </c>
       <c r="L78" t="n" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M78" t="s" s="39">
-        <v>56</v>
+        <v>262</v>
       </c>
       <c r="N78" t="n" s="5">
-        <v>0.0</v>
+        <v>50000.0</v>
       </c>
       <c r="O78" t="n" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P78" t="s" s="39">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="Q78" s="5" t="n">
         <f>H78+K78-N78</f>
-        <v>50000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79" ht="30.0" customHeight="true">
@@ -5437,12 +5850,12 @@
         <v>67.0</v>
       </c>
       <c r="B79" t="s" s="40">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C79" s="41"/>
       <c r="D79" s="42"/>
       <c r="E79" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F79" t="n" s="5">
         <v>0.0</v>
@@ -5457,7 +5870,7 @@
         <v>4.0</v>
       </c>
       <c r="J79" t="s" s="39">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="K79" t="n" s="5">
         <v>71000.0</v>
@@ -5475,7 +5888,7 @@
         <v>4.0</v>
       </c>
       <c r="P79" t="s" s="39">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="Q79" s="5" t="n">
         <f>H79+K79-N79</f>
@@ -5488,7 +5901,7 @@
         <v>68.0</v>
       </c>
       <c r="B80" t="s" s="40">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="C80" s="41"/>
       <c r="D80" s="42"/>
@@ -5508,29 +5921,29 @@
         <v>1.0</v>
       </c>
       <c r="J80" t="s" s="39">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="K80" t="n" s="5">
         <v>25000.0</v>
       </c>
       <c r="L80" t="n" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M80" t="s" s="39">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="N80" t="n" s="5">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="O80" t="n" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P80" t="s" s="39">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="Q80" s="5" t="n">
         <f>H80+K80-N80</f>
-        <v>25000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81" ht="30.0" customHeight="true">
@@ -5539,12 +5952,12 @@
         <v>69.0</v>
       </c>
       <c r="B81" t="s" s="40">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="C81" s="41"/>
       <c r="D81" s="42"/>
       <c r="E81" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F81" t="n" s="5">
         <v>0.0</v>
@@ -5559,29 +5972,29 @@
         <v>5.0</v>
       </c>
       <c r="J81" t="s" s="39">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="K81" t="n" s="5">
         <v>150000.0</v>
       </c>
       <c r="L81" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M81" t="s" s="39">
-        <v>56</v>
+        <v>269</v>
       </c>
       <c r="N81" t="n" s="5">
-        <v>0.0</v>
+        <v>150000.0</v>
       </c>
       <c r="O81" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P81" t="s" s="39">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="Q81" s="5" t="n">
         <f>H81+K81-N81</f>
-        <v>150000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82" ht="30.0" customHeight="true">
@@ -5590,12 +6003,12 @@
         <v>70.0</v>
       </c>
       <c r="B82" t="s" s="40">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="C82" s="41"/>
       <c r="D82" s="42"/>
       <c r="E82" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F82" t="n" s="5">
         <v>0.0</v>
@@ -5610,29 +6023,29 @@
         <v>7.0</v>
       </c>
       <c r="J82" t="s" s="39">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="K82" t="n" s="5">
         <v>88200.0</v>
       </c>
       <c r="L82" t="n" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M82" t="s" s="39">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="N82" t="n" s="5">
-        <v>0.0</v>
+        <v>12600.0</v>
       </c>
       <c r="O82" t="n" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="P82" t="s" s="39">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="Q82" s="5" t="n">
         <f>H82+K82-N82</f>
-        <v>88200.0</v>
+        <v>75600.0</v>
       </c>
     </row>
     <row r="83" ht="30.0" customHeight="true">
@@ -5641,12 +6054,12 @@
         <v>71.0</v>
       </c>
       <c r="B83" t="s" s="40">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
       <c r="E83" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F83" t="n" s="5">
         <v>0.0</v>
@@ -5661,29 +6074,29 @@
         <v>43.0</v>
       </c>
       <c r="J83" t="s" s="39">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="K83" t="n" s="5">
         <v>767700.0</v>
       </c>
       <c r="L83" t="n" s="5">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="M83" t="s" s="39">
-        <v>56</v>
+        <v>277</v>
       </c>
       <c r="N83" t="n" s="5">
-        <v>0.0</v>
+        <v>624900.0</v>
       </c>
       <c r="O83" t="n" s="5">
-        <v>43.0</v>
+        <v>8.0</v>
       </c>
       <c r="P83" t="s" s="39">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="Q83" s="5" t="n">
         <f>H83+K83-N83</f>
-        <v>767700.0</v>
+        <v>142800.0</v>
       </c>
     </row>
     <row r="84" ht="30.0" customHeight="true">
@@ -5692,12 +6105,12 @@
         <v>72.0</v>
       </c>
       <c r="B84" t="s" s="40">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="C84" s="41"/>
       <c r="D84" s="42"/>
       <c r="E84" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F84" t="n" s="5">
         <v>0.0</v>
@@ -5712,29 +6125,29 @@
         <v>11.0</v>
       </c>
       <c r="J84" t="s" s="39">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="K84" t="n" s="5">
         <v>288500.0</v>
       </c>
       <c r="L84" t="n" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M84" t="s" s="39">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="N84" t="n" s="5">
-        <v>0.0</v>
+        <v>26250.0</v>
       </c>
       <c r="O84" t="n" s="5">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="P84" t="s" s="39">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="Q84" s="5" t="n">
         <f>H84+K84-N84</f>
-        <v>288500.0</v>
+        <v>262250.0</v>
       </c>
     </row>
     <row r="85" ht="30.0" customHeight="true">
@@ -5743,12 +6156,12 @@
         <v>73.0</v>
       </c>
       <c r="B85" t="s" s="40">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="C85" s="41"/>
       <c r="D85" s="42"/>
       <c r="E85" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F85" t="n" s="5">
         <v>0.0</v>
@@ -5763,29 +6176,29 @@
         <v>3.0</v>
       </c>
       <c r="J85" t="s" s="39">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="K85" t="n" s="5">
         <v>111000.0</v>
       </c>
       <c r="L85" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M85" t="s" s="39">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="N85" t="n" s="5">
-        <v>0.0</v>
+        <v>111000.0</v>
       </c>
       <c r="O85" t="n" s="5">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P85" t="s" s="39">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="Q85" s="5" t="n">
         <f>H85+K85-N85</f>
-        <v>111000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86" ht="30.0" customHeight="true">
@@ -5794,7 +6207,7 @@
         <v>74.0</v>
       </c>
       <c r="B86" t="s" s="40">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="C86" s="41"/>
       <c r="D86" s="42"/>
@@ -5814,7 +6227,7 @@
         <v>6.0</v>
       </c>
       <c r="J86" t="s" s="39">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="K86" t="n" s="5">
         <v>99000.0</v>
@@ -5832,7 +6245,7 @@
         <v>6.0</v>
       </c>
       <c r="P86" t="s" s="39">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="Q86" s="5" t="n">
         <f>H86+K86-N86</f>
@@ -5845,12 +6258,12 @@
         <v>75.0</v>
       </c>
       <c r="B87" t="s" s="40">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="C87" s="41"/>
       <c r="D87" s="42"/>
       <c r="E87" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F87" t="n" s="5">
         <v>0.0</v>
@@ -5865,7 +6278,7 @@
         <v>15.0</v>
       </c>
       <c r="J87" t="s" s="39">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="K87" t="n" s="5">
         <v>375000.0</v>
@@ -5883,7 +6296,7 @@
         <v>15.0</v>
       </c>
       <c r="P87" t="s" s="39">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="Q87" s="5" t="n">
         <f>H87+K87-N87</f>
@@ -5896,12 +6309,12 @@
         <v>76.0</v>
       </c>
       <c r="B88" t="s" s="40">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="C88" s="41"/>
       <c r="D88" s="42"/>
       <c r="E88" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F88" t="n" s="5">
         <v>0.0</v>
@@ -5916,7 +6329,7 @@
         <v>8.0</v>
       </c>
       <c r="J88" t="s" s="39">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="K88" t="n" s="5">
         <v>370000.0</v>
@@ -5934,7 +6347,7 @@
         <v>8.0</v>
       </c>
       <c r="P88" t="s" s="39">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="Q88" s="5" t="n">
         <f>H88+K88-N88</f>
@@ -5947,12 +6360,12 @@
         <v>77.0</v>
       </c>
       <c r="B89" t="s" s="40">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="C89" s="41"/>
       <c r="D89" s="42"/>
       <c r="E89" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F89" t="n" s="5">
         <v>0.0</v>
@@ -5967,7 +6380,7 @@
         <v>9.0</v>
       </c>
       <c r="J89" t="s" s="39">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="K89" t="n" s="5">
         <v>99000.0</v>
@@ -5985,7 +6398,7 @@
         <v>9.0</v>
       </c>
       <c r="P89" t="s" s="39">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="Q89" s="5" t="n">
         <f>H89+K89-N89</f>
@@ -5998,12 +6411,12 @@
         <v>78.0</v>
       </c>
       <c r="B90" t="s" s="40">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="C90" s="41"/>
       <c r="D90" s="42"/>
       <c r="E90" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F90" t="n" s="5">
         <v>0.0</v>
@@ -6018,7 +6431,7 @@
         <v>11.0</v>
       </c>
       <c r="J90" t="s" s="39">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="K90" t="n" s="5">
         <v>440000.0</v>
@@ -6036,7 +6449,7 @@
         <v>11.0</v>
       </c>
       <c r="P90" t="s" s="39">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="Q90" s="5" t="n">
         <f>H90+K90-N90</f>
@@ -6049,12 +6462,12 @@
         <v>79.0</v>
       </c>
       <c r="B91" t="s" s="40">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="C91" s="41"/>
       <c r="D91" s="42"/>
       <c r="E91" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F91" t="n" s="5">
         <v>0.0</v>
@@ -6069,7 +6482,7 @@
         <v>10.0</v>
       </c>
       <c r="J91" t="s" s="39">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="K91" t="n" s="5">
         <v>145000.0</v>
@@ -6087,7 +6500,7 @@
         <v>10.0</v>
       </c>
       <c r="P91" t="s" s="39">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="Q91" s="5" t="n">
         <f>H91+K91-N91</f>
@@ -6100,12 +6513,12 @@
         <v>80.0</v>
       </c>
       <c r="B92" t="s" s="40">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="C92" s="41"/>
       <c r="D92" s="42"/>
       <c r="E92" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F92" t="n" s="5">
         <v>0.0</v>
@@ -6120,29 +6533,29 @@
         <v>5.0</v>
       </c>
       <c r="J92" t="s" s="39">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="K92" t="n" s="5">
         <v>115000.0</v>
       </c>
       <c r="L92" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M92" t="s" s="39">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="N92" t="n" s="5">
-        <v>0.0</v>
+        <v>115000.0</v>
       </c>
       <c r="O92" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P92" t="s" s="39">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Q92" s="5" t="n">
         <f>H92+K92-N92</f>
-        <v>115000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93" ht="30.0" customHeight="true">
@@ -6151,12 +6564,12 @@
         <v>81.0</v>
       </c>
       <c r="B93" t="s" s="40">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="C93" s="41"/>
       <c r="D93" s="42"/>
       <c r="E93" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F93" t="n" s="5">
         <v>0.0</v>
@@ -6171,29 +6584,29 @@
         <v>2.0</v>
       </c>
       <c r="J93" t="s" s="39">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="K93" t="n" s="5">
         <v>110000.0</v>
       </c>
       <c r="L93" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M93" t="s" s="39">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="N93" t="n" s="5">
-        <v>0.0</v>
+        <v>110000.0</v>
       </c>
       <c r="O93" t="n" s="5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P93" t="s" s="39">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="Q93" s="5" t="n">
         <f>H93+K93-N93</f>
-        <v>110000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94" ht="30.0" customHeight="true">
@@ -6202,12 +6615,12 @@
         <v>82.0</v>
       </c>
       <c r="B94" t="s" s="40">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="C94" s="41"/>
       <c r="D94" s="42"/>
       <c r="E94" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F94" t="n" s="5">
         <v>0.0</v>
@@ -6222,29 +6635,29 @@
         <v>2.0</v>
       </c>
       <c r="J94" t="s" s="39">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="K94" t="n" s="5">
         <v>110000.0</v>
       </c>
       <c r="L94" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M94" t="s" s="39">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="N94" t="n" s="5">
-        <v>0.0</v>
+        <v>110000.0</v>
       </c>
       <c r="O94" t="n" s="5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P94" t="s" s="39">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="Q94" s="5" t="n">
         <f>H94+K94-N94</f>
-        <v>110000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95" ht="30.0" customHeight="true">
@@ -6253,12 +6666,12 @@
         <v>83.0</v>
       </c>
       <c r="B95" t="s" s="40">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="C95" s="41"/>
       <c r="D95" s="42"/>
       <c r="E95" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F95" t="n" s="5">
         <v>0.0</v>
@@ -6273,29 +6686,29 @@
         <v>2.0</v>
       </c>
       <c r="J95" t="s" s="39">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="K95" t="n" s="5">
         <v>110000.0</v>
       </c>
       <c r="L95" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M95" t="s" s="39">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="N95" t="n" s="5">
-        <v>0.0</v>
+        <v>110000.0</v>
       </c>
       <c r="O95" t="n" s="5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P95" t="s" s="39">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="Q95" s="5" t="n">
         <f>H95+K95-N95</f>
-        <v>110000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96" ht="30.0" customHeight="true">
@@ -6304,12 +6717,12 @@
         <v>84.0</v>
       </c>
       <c r="B96" t="s" s="40">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="C96" s="41"/>
       <c r="D96" s="42"/>
       <c r="E96" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F96" t="n" s="5">
         <v>0.0</v>
@@ -6324,29 +6737,29 @@
         <v>2.0</v>
       </c>
       <c r="J96" t="s" s="39">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="K96" t="n" s="5">
         <v>110000.0</v>
       </c>
       <c r="L96" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M96" t="s" s="39">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="N96" t="n" s="5">
-        <v>0.0</v>
+        <v>110000.0</v>
       </c>
       <c r="O96" t="n" s="5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P96" t="s" s="39">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="Q96" s="5" t="n">
         <f>H96+K96-N96</f>
-        <v>110000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97" ht="30.0" customHeight="true">
@@ -6355,12 +6768,12 @@
         <v>85.0</v>
       </c>
       <c r="B97" t="s" s="40">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C97" s="41"/>
       <c r="D97" s="42"/>
       <c r="E97" t="s" s="12">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="F97" t="n" s="5">
         <v>0.0</v>
@@ -6375,29 +6788,29 @@
         <v>3.0</v>
       </c>
       <c r="J97" t="s" s="39">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="K97" t="n" s="5">
         <v>330000.0</v>
       </c>
       <c r="L97" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M97" t="s" s="39">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N97" t="n" s="5">
-        <v>0.0</v>
+        <v>330000.0</v>
       </c>
       <c r="O97" t="n" s="5">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P97" t="s" s="39">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="Q97" s="5" t="n">
         <f>H97+K97-N97</f>
-        <v>330000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98" ht="30.0" customHeight="true">
@@ -6406,12 +6819,12 @@
         <v>86.0</v>
       </c>
       <c r="B98" t="s" s="40">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="C98" s="41"/>
       <c r="D98" s="42"/>
       <c r="E98" t="s" s="12">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="F98" t="n" s="5">
         <v>0.0</v>
@@ -6426,29 +6839,29 @@
         <v>3.0</v>
       </c>
       <c r="J98" t="s" s="39">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="K98" t="n" s="5">
         <v>330000.0</v>
       </c>
       <c r="L98" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M98" t="s" s="39">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N98" t="n" s="5">
-        <v>0.0</v>
+        <v>330000.0</v>
       </c>
       <c r="O98" t="n" s="5">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P98" t="s" s="39">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="Q98" s="5" t="n">
         <f>H98+K98-N98</f>
-        <v>330000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99" ht="30.0" customHeight="true">
@@ -6457,12 +6870,12 @@
         <v>87.0</v>
       </c>
       <c r="B99" t="s" s="40">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="C99" s="41"/>
       <c r="D99" s="42"/>
       <c r="E99" t="s" s="12">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="F99" t="n" s="5">
         <v>0.0</v>
@@ -6477,29 +6890,29 @@
         <v>6.0</v>
       </c>
       <c r="J99" t="s" s="39">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="K99" t="n" s="5">
         <v>645000.0</v>
       </c>
       <c r="L99" t="n" s="5">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="M99" t="s" s="39">
-        <v>56</v>
+        <v>314</v>
       </c>
       <c r="N99" t="n" s="5">
-        <v>0.0</v>
+        <v>645000.0</v>
       </c>
       <c r="O99" t="n" s="5">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="P99" t="s" s="39">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="Q99" s="5" t="n">
         <f>H99+K99-N99</f>
-        <v>645000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100" ht="30.0" customHeight="true">
@@ -6508,12 +6921,12 @@
         <v>88.0</v>
       </c>
       <c r="B100" t="s" s="40">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="C100" s="41"/>
       <c r="D100" s="42"/>
       <c r="E100" t="s" s="12">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="F100" t="n" s="5">
         <v>0.0</v>
@@ -6528,29 +6941,29 @@
         <v>5.0</v>
       </c>
       <c r="J100" t="s" s="39">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="K100" t="n" s="5">
         <v>525000.0</v>
       </c>
       <c r="L100" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M100" t="s" s="39">
-        <v>56</v>
+        <v>318</v>
       </c>
       <c r="N100" t="n" s="5">
-        <v>0.0</v>
+        <v>525000.0</v>
       </c>
       <c r="O100" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P100" t="s" s="39">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="Q100" s="5" t="n">
         <f>H100+K100-N100</f>
-        <v>525000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101" ht="30.0" customHeight="true">
@@ -6559,12 +6972,12 @@
         <v>89.0</v>
       </c>
       <c r="B101" t="s" s="40">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="C101" s="41"/>
       <c r="D101" s="42"/>
       <c r="E101" t="s" s="12">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="F101" t="n" s="5">
         <v>0.0</v>
@@ -6579,29 +6992,29 @@
         <v>5.0</v>
       </c>
       <c r="J101" t="s" s="39">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="K101" t="n" s="5">
         <v>525000.0</v>
       </c>
       <c r="L101" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M101" t="s" s="39">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="N101" t="n" s="5">
-        <v>0.0</v>
+        <v>335000.0</v>
       </c>
       <c r="O101" t="n" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="P101" t="s" s="39">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="Q101" s="5" t="n">
         <f>H101+K101-N101</f>
-        <v>525000.0</v>
+        <v>190000.0</v>
       </c>
     </row>
     <row r="102" ht="30.0" customHeight="true">
@@ -6610,12 +7023,12 @@
         <v>90.0</v>
       </c>
       <c r="B102" t="s" s="40">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="C102" s="41"/>
       <c r="D102" s="42"/>
       <c r="E102" t="s" s="12">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="F102" t="n" s="5">
         <v>0.0</v>
@@ -6630,29 +7043,29 @@
         <v>5.0</v>
       </c>
       <c r="J102" t="s" s="39">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="K102" t="n" s="5">
         <v>525000.0</v>
       </c>
       <c r="L102" t="n" s="5">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M102" t="s" s="39">
-        <v>56</v>
+        <v>318</v>
       </c>
       <c r="N102" t="n" s="5">
-        <v>0.0</v>
+        <v>525000.0</v>
       </c>
       <c r="O102" t="n" s="5">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P102" t="s" s="39">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="Q102" s="5" t="n">
         <f>H102+K102-N102</f>
-        <v>525000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103" ht="30.0" customHeight="true">
@@ -6661,12 +7074,12 @@
         <v>91.0</v>
       </c>
       <c r="B103" t="s" s="40">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="C103" s="41"/>
       <c r="D103" s="42"/>
       <c r="E103" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F103" t="n" s="5">
         <v>0.0</v>
@@ -6681,29 +7094,29 @@
         <v>23.0</v>
       </c>
       <c r="J103" t="s" s="39">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="K103" t="n" s="5">
         <v>2185000.0</v>
       </c>
       <c r="L103" t="n" s="5">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="M103" t="s" s="39">
-        <v>56</v>
+        <v>325</v>
       </c>
       <c r="N103" t="n" s="5">
-        <v>0.0</v>
+        <v>2185000.0</v>
       </c>
       <c r="O103" t="n" s="5">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="P103" t="s" s="39">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="Q103" s="5" t="n">
         <f>H103+K103-N103</f>
-        <v>2185000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104" ht="30.0" customHeight="true">
@@ -6712,12 +7125,12 @@
         <v>92.0</v>
       </c>
       <c r="B104" t="s" s="40">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="C104" s="41"/>
       <c r="D104" s="42"/>
       <c r="E104" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F104" t="n" s="5">
         <v>0.0</v>
@@ -6732,29 +7145,29 @@
         <v>21.0</v>
       </c>
       <c r="J104" t="s" s="39">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="K104" t="n" s="5">
         <v>1995000.0</v>
       </c>
       <c r="L104" t="n" s="5">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="M104" t="s" s="39">
-        <v>56</v>
+        <v>329</v>
       </c>
       <c r="N104" t="n" s="5">
-        <v>0.0</v>
+        <v>1995000.0</v>
       </c>
       <c r="O104" t="n" s="5">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="P104" t="s" s="39">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q104" s="5" t="n">
         <f>H104+K104-N104</f>
-        <v>1995000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105" ht="30.0" customHeight="true">
@@ -6763,12 +7176,12 @@
         <v>93.0</v>
       </c>
       <c r="B105" t="s" s="40">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="C105" s="41"/>
       <c r="D105" s="42"/>
       <c r="E105" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F105" t="n" s="5">
         <v>0.0</v>
@@ -6783,29 +7196,29 @@
         <v>21.0</v>
       </c>
       <c r="J105" t="s" s="39">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="K105" t="n" s="5">
         <v>1995000.0</v>
       </c>
       <c r="L105" t="n" s="5">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="M105" t="s" s="39">
-        <v>56</v>
+        <v>329</v>
       </c>
       <c r="N105" t="n" s="5">
-        <v>0.0</v>
+        <v>1995000.0</v>
       </c>
       <c r="O105" t="n" s="5">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="P105" t="s" s="39">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q105" s="5" t="n">
         <f>H105+K105-N105</f>
-        <v>1995000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106" ht="30.0" customHeight="true">
@@ -6814,12 +7227,12 @@
         <v>94.0</v>
       </c>
       <c r="B106" t="s" s="40">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="C106" s="41"/>
       <c r="D106" s="42"/>
       <c r="E106" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F106" t="n" s="5">
         <v>0.0</v>
@@ -6834,29 +7247,29 @@
         <v>21.0</v>
       </c>
       <c r="J106" t="s" s="39">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="K106" t="n" s="5">
         <v>1995000.0</v>
       </c>
       <c r="L106" t="n" s="5">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="M106" t="s" s="39">
-        <v>56</v>
+        <v>329</v>
       </c>
       <c r="N106" t="n" s="5">
-        <v>0.0</v>
+        <v>1995000.0</v>
       </c>
       <c r="O106" t="n" s="5">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="P106" t="s" s="39">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q106" s="5" t="n">
         <f>H106+K106-N106</f>
-        <v>1995000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107" ht="30.0" customHeight="true">
@@ -6865,12 +7278,12 @@
         <v>95.0</v>
       </c>
       <c r="B107" t="s" s="40">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="42"/>
       <c r="E107" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F107" t="n" s="5">
         <v>0.0</v>
@@ -6885,29 +7298,29 @@
         <v>21.0</v>
       </c>
       <c r="J107" t="s" s="39">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="K107" t="n" s="5">
         <v>5725000.0</v>
       </c>
       <c r="L107" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M107" t="s" s="39">
-        <v>56</v>
+        <v>334</v>
       </c>
       <c r="N107" t="n" s="5">
-        <v>0.0</v>
+        <v>550000.0</v>
       </c>
       <c r="O107" t="n" s="5">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="P107" t="s" s="39">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="Q107" s="5" t="n">
         <f>H107+K107-N107</f>
-        <v>5725000.0</v>
+        <v>5175000.0</v>
       </c>
     </row>
     <row r="108" ht="30.0" customHeight="true">
@@ -6916,12 +7329,12 @@
         <v>96.0</v>
       </c>
       <c r="B108" t="s" s="40">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="42"/>
       <c r="E108" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F108" t="n" s="5">
         <v>0.0</v>
@@ -6936,29 +7349,29 @@
         <v>20.0</v>
       </c>
       <c r="J108" t="s" s="39">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="K108" t="n" s="5">
         <v>5500000.0</v>
       </c>
       <c r="L108" t="n" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M108" t="s" s="39">
-        <v>56</v>
+        <v>334</v>
       </c>
       <c r="N108" t="n" s="5">
-        <v>0.0</v>
+        <v>550000.0</v>
       </c>
       <c r="O108" t="n" s="5">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="P108" t="s" s="39">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="Q108" s="5" t="n">
         <f>H108+K108-N108</f>
-        <v>5500000.0</v>
+        <v>4950000.0</v>
       </c>
     </row>
     <row r="109" ht="30.0" customHeight="true">
@@ -6967,12 +7380,12 @@
         <v>97.0</v>
       </c>
       <c r="B109" t="s" s="40">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="C109" s="41"/>
       <c r="D109" s="42"/>
       <c r="E109" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F109" t="n" s="5">
         <v>0.0</v>
@@ -6987,29 +7400,29 @@
         <v>4.0</v>
       </c>
       <c r="J109" t="s" s="39">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="K109" t="n" s="5">
         <v>4605000.0</v>
       </c>
       <c r="L109" t="n" s="5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M109" t="s" s="39">
-        <v>56</v>
+        <v>341</v>
       </c>
       <c r="N109" t="n" s="5">
-        <v>0.0</v>
+        <v>3455000.0</v>
       </c>
       <c r="O109" t="n" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="P109" t="s" s="39">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="Q109" s="5" t="n">
         <f>H109+K109-N109</f>
-        <v>4605000.0</v>
+        <v>1150000.0</v>
       </c>
     </row>
     <row r="110" ht="30.0" customHeight="true">
@@ -7018,12 +7431,12 @@
         <v>98.0</v>
       </c>
       <c r="B110" t="s" s="40">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="C110" s="41"/>
       <c r="D110" s="42"/>
       <c r="E110" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F110" t="n" s="5">
         <v>0.0</v>
@@ -7038,7 +7451,7 @@
         <v>51.0</v>
       </c>
       <c r="J110" t="s" s="39">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="K110" t="n" s="5">
         <v>1479000.0</v>
@@ -7056,7 +7469,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s" s="39">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="Q110" s="5" t="n">
         <f>H110+K110-N110</f>
@@ -7069,12 +7482,12 @@
         <v>99.0</v>
       </c>
       <c r="B111" t="s" s="40">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="C111" s="41"/>
       <c r="D111" s="42"/>
       <c r="E111" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F111" t="n" s="5">
         <v>0.0</v>
@@ -7089,7 +7502,7 @@
         <v>55.0</v>
       </c>
       <c r="J111" t="s" s="39">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="K111" t="n" s="5">
         <v>1100000.0</v>
@@ -7107,7 +7520,7 @@
         <v>55.0</v>
       </c>
       <c r="P111" t="s" s="39">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="Q111" s="5" t="n">
         <f>H111+K111-N111</f>
@@ -7120,12 +7533,12 @@
         <v>100.0</v>
       </c>
       <c r="B112" t="s" s="40">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="C112" s="41"/>
       <c r="D112" s="42"/>
       <c r="E112" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F112" t="n" s="5">
         <v>0.0</v>
@@ -7140,7 +7553,7 @@
         <v>40.0</v>
       </c>
       <c r="J112" t="s" s="39">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="K112" t="n" s="5">
         <v>560000.0</v>
@@ -7158,7 +7571,7 @@
         <v>40.0</v>
       </c>
       <c r="P112" t="s" s="39">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="Q112" s="5" t="n">
         <f>H112+K112-N112</f>
@@ -7171,12 +7584,12 @@
         <v>101.0</v>
       </c>
       <c r="B113" t="s" s="40">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="C113" s="41"/>
       <c r="D113" s="42"/>
       <c r="E113" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F113" t="n" s="5">
         <v>0.0</v>
@@ -7191,7 +7604,7 @@
         <v>1.0</v>
       </c>
       <c r="J113" t="s" s="39">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="K113" t="n" s="5">
         <v>1250.0</v>
@@ -7209,7 +7622,7 @@
         <v>1.0</v>
       </c>
       <c r="P113" t="s" s="39">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="Q113" s="5" t="n">
         <f>H113+K113-N113</f>
@@ -7222,12 +7635,12 @@
         <v>102.0</v>
       </c>
       <c r="B114" t="s" s="40">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="C114" s="41"/>
       <c r="D114" s="42"/>
       <c r="E114" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F114" t="n" s="5">
         <v>0.0</v>
@@ -7242,7 +7655,7 @@
         <v>18.0</v>
       </c>
       <c r="J114" t="s" s="39">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="K114" t="n" s="5">
         <v>333000.0</v>
@@ -7260,7 +7673,7 @@
         <v>18.0</v>
       </c>
       <c r="P114" t="s" s="39">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="Q114" s="5" t="n">
         <f>H114+K114-N114</f>
@@ -7273,12 +7686,12 @@
         <v>103.0</v>
       </c>
       <c r="B115" t="s" s="40">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="C115" s="41"/>
       <c r="D115" s="42"/>
       <c r="E115" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F115" t="n" s="5">
         <v>0.0</v>
@@ -7293,7 +7706,7 @@
         <v>12.0</v>
       </c>
       <c r="J115" t="s" s="39">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="K115" t="n" s="5">
         <v>294000.0</v>
@@ -7311,7 +7724,7 @@
         <v>12.0</v>
       </c>
       <c r="P115" t="s" s="39">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="Q115" s="5" t="n">
         <f>H115+K115-N115</f>
@@ -7324,12 +7737,12 @@
         <v>104.0</v>
       </c>
       <c r="B116" t="s" s="40">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="C116" s="41"/>
       <c r="D116" s="42"/>
       <c r="E116" t="s" s="12">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F116" t="n" s="5">
         <v>0.0</v>
@@ -7344,7 +7757,7 @@
         <v>10.0</v>
       </c>
       <c r="J116" t="s" s="39">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="K116" t="n" s="5">
         <v>270000.0</v>
@@ -7362,7 +7775,7 @@
         <v>10.0</v>
       </c>
       <c r="P116" t="s" s="39">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="Q116" s="5" t="n">
         <f>H116+K116-N116</f>
@@ -7391,13 +7804,13 @@
       <c r="M117" s="7"/>
       <c r="N117" s="14" t="n">
         <f ca="1">SUM(INDIRECT("N13:N"&amp;ROW(N117)-1))</f>
-        <v>47500.0</v>
+        <v>5.48049E7</v>
       </c>
       <c r="O117" s="13"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="14" t="n">
         <f ca="1">SUM(INDIRECT("Q13:Q"&amp;ROW(Q117)-1))</f>
-        <v>1.1880105E8</v>
+        <v>6.404365E7</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
